--- a/pre/maria/al/Slimagic  AL  2.xlsx
+++ b/pre/maria/al/Slimagic  AL  2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="198">
   <si>
     <t>Slimagic</t>
   </si>
@@ -44,13 +44,13 @@
     <t>Arritja ime</t>
   </si>
   <si>
-    <t>me te madh</t>
-  </si>
-  <si>
-    <t>personal</t>
-  </si>
-  <si>
-    <t>Uh ... ku të filloj...</t>
+    <t>me e madhe</t>
+  </si>
+  <si>
+    <t>Personale</t>
+  </si>
+  <si>
+    <t>Booo... ku të filloj...</t>
   </si>
   <si>
     <t>Atëherë. Dua te filloj me falënderime për</t>
@@ -59,10 +59,10 @@
     <t>mbështetjen,</t>
   </si>
   <si>
-    <t>komplimentet dhe fjalë të mira)) Është me të vërtetë shume e bukur ... (pse jo, unë e meritoj) 😂</t>
-  </si>
-  <si>
-    <t>Për ata që sapo u bashkuan me mua, unë jam Manjola dhe ky është blogu im se si</t>
+    <t>komplimente dhe fjalë të mira)) Është më të vërtetë shume e bukur ... (pse jo, unë e meritoj) 😂</t>
+  </si>
+  <si>
+    <t>Për ata që sapo u bashkuan më mua, unë jam Manjola dhe ky është blogu im së si</t>
   </si>
   <si>
     <t>kam humbur peshë</t>
@@ -71,7 +71,7 @@
     <t>Le të fillojmë) I gjithë procesi i humbjes së peshës) Brenda vitit!</t>
   </si>
   <si>
-    <t>Nga 120 kg në 75 kg, kjo sigurisht që nuk është fundi) do humbas edhe</t>
+    <t>Nga 120 kg në 75 kg, sigurisht që ky nuk është përfundim) më kanë ngelur edhe</t>
   </si>
   <si>
     <t>15 kg te tjera)</t>
@@ -80,7 +80,7 @@
     <t>Kush interesohet - gjatësia 177, mosha 33, numri i telefonit +7996 .. (bëj shaka)</t>
   </si>
   <si>
-    <t>Historia ime: Unë isha shumë i gjatë si fëmijë dhe nëna ime më dërgoi te seksioni e basketbollit , gjithçka shkonte mirë për mua dhe madje mendova për një karrierë serioze, por ndodhi një tragjedi dhe trajneri im i preferuar vdiq. Kjo më lëndoi me të vërtetë, nuk doja të luaja më, nuk mund ta shihja topin. Dhe fillova të haja shumë,</t>
+    <t>Historia ime: Unë isha shumë i gjatë si fëmijë dhe nëna ime më dërgoi pranë seksionit të basketbollit , gjithçka shkonte mirë për mua dhe madje mendova për një karrierë serioze, por ndodhi një tragjedi dhe trajneri im i preferuar vdiq. Kjo më lëndoi me të vërtetë, nuk doja të luaja më, nuk mund ta shihja topin. Dhe fillova të haja shumë,</t>
   </si>
   <si>
     <t>pesha ime u rrit</t>
@@ -89,7 +89,7 @@
     <t>.</t>
   </si>
   <si>
-    <t>Nuk u ktheva në basketboll. Unë nuk kam miq në shkollë, me përqeshnin në shkollë për shkak të gjatësisë, kam qenë një kokë më gjatë nga të gjitha vajzat, Për djemtë s`po ju them dot ... Kur isha 13 vjeç,</t>
+    <t>Nuk u ktheva në basketboll. Unë nuk kam miq në shkollë, me përqeshnin në shkollë për shkak të gjatësisë, kam qenë një kokë më gjatë nga e gjitha vajzat, Për djemtë s`po ju them dot ... Kur isha 13 vjeç,</t>
   </si>
   <si>
     <t>pesha ime ishte 80 kg</t>
@@ -98,16 +98,16 @@
     <t>, por nuk më shqetësoi në atë moment. Unë shkoja në shkollë, kthehesha dhe haja, haja, haja ... Prindërit e mi u përpoqën të më ndihmonin, por pa efekt.</t>
   </si>
   <si>
-    <t>Kanë kaluar 5 vjet dhe unë jam ulur këtu një</t>
+    <t>Kanë kaluar 5 vjet dhe unë e gjeta veten time si një</t>
   </si>
   <si>
     <t>lope e trishtuar prej 110 kg</t>
   </si>
   <si>
-    <t>dhe po më bihen lotët që askush nuk më do) nuk kam as shokë, as punën qe do doja ... Me përqeshnin .. Kam dëgjuar shpesh që jam lopë, trashaluqe etj. Nuk e kisha probleme .. U mësova ...</t>
-  </si>
-  <si>
-    <t>Kaluan 10 vjet të tjera, u mësova, gjeta një punë të mirë ... gjithçka dukesh si të gjithë të tjerët ... por unë kisha një ëndërr .. të takoja një njeri që do me doje</t>
+    <t>dhe po më binin lotët që askush nuk më donte) nuk kisha as shokë, as punën qe do doja ... Me përqeshnin … Dëgjoja shpesh që jam lopë, trashaluqe etj. Nuk e kisha probleme .. U mësova ...</t>
+  </si>
+  <si>
+    <t>Kaluan 10 vjet të tjera, u mësova, gjeta një punë të mirë ... gjithçka dukesh si të gjithë të tjerët ... por unë kisha një ëndërr .. të takoja një njeri që do më doje</t>
   </si>
   <si>
     <t>ashtu siç jam</t>
@@ -128,7 +128,7 @@
     <t>shko dhe puno vetë</t>
   </si>
   <si>
-    <t>!!!!Shiko vetë:</t>
+    <t>!!!! Shiko këtu:</t>
   </si>
   <si>
     <t>- Ky është shëndeti yt!</t>
@@ -164,7 +164,7 @@
     <t>nuk haja pas orës 18:00</t>
   </si>
   <si>
-    <t>Përjashtova bukën, gjalpin, makaronat, biskotat, etj. tufa, duke e lënë veten të haja pak sheqer ne mëngjes)</t>
+    <t>Përjashtova bukën, gjalpin, makaronat, biskotat, etj. , duke e lënë veten të haja pak sheqer ne mëngjes)</t>
   </si>
   <si>
     <t>Pastaj fillova të vrapoja ... E dija që me</t>
@@ -177,19 +177,19 @@
     <t>,por prapë vendosa .. Vështirë të quhesh atë vrap! Ecja shpejt nëpër stadium, pastaj vrapoja për 15 metra. Por në atë moment ishte një nivel për mua .. gradualisht u përpoqa të vrapoja pak më shumë ..</t>
   </si>
   <si>
-    <t>Më dhembnin këmbët.. pas çdo vrap ma përvëlonin si ferr .. pas çdo aktivitet me dhimbtë tërë trupi 2 herë në javë</t>
+    <t>Më dhembnin këmbët.. pas çdo vrap ma përvëlonin si ferr .. pas çdo aktivitet me dhimbtë tërë trupi 2 herë në javë.</t>
   </si>
   <si>
     <t>10 kg të parë</t>
   </si>
   <si>
-    <t>Isha e acaruar nga dhimbja e muskujve dhe ndjenja e urisë ..</t>
+    <t>Isha e acaruar nga dhimbja e muskujve dhe ndjenja e urisë …</t>
   </si>
   <si>
     <t>Po qaja shumë, thosha që do të le gjithçka .. me lot shkoja në stadium .. vrapoja dhe qaja ..</t>
   </si>
   <si>
-    <t>Shoqja ime gjithmonë në këto momente bisedonte me mua në telefon dhe me thoshe që unë isha më e bukura, se tashmë kisha bërë shumë gjëra që nuk mund të ndaloja .. domethënë ma jepte mbështetje morale të plotë ... dhe ankthi zëvendësohesh me zemërimin, për se unë sillesha si histerike me karakter të dobët, dhe shkoja për të ushtruar .. me zemërim dhe këmbëngulje)</t>
+    <t>Në këto momente shoqja ime gjithmonë bisedonte me mua në telefon dhe me thoshe që unë isha më e bukura, se tashmë kisha bërë shumë gjëra që nuk mund të ndaloja .. domethënë ma jepte mbështetje morale të plotë ... dhe ankthi zëvendësohesh me zemërimin, për se unë sillesha si histerike me karakter të dobët, dhe shkoja për të ushtruar .. me zemërim dhe këmbëngulje)</t>
   </si>
   <si>
     <t>Pas gjysmë viti humba 20 kg</t>
@@ -198,13 +198,13 @@
     <t>Si përfundim me zinte vaska ^) dhe kuptova se dhimbja e muskujve lehtësohej nga uji i nxehtë ...</t>
   </si>
   <si>
-    <t>Pastaj u ndjeva më i sigurt! Fillova palestrën. Gjithçka shkoi sipas planit, pesha ngadalë po largonte, unë u mësova të rri pothuajse pa ngrenë … Por, më pas, papritmas pesha ndaloi… Më zuri paniku. Natyrisht, fillova të angazhohem edhe më shumë duke e lodhur veten nga grevat e urisë dhe dietat ... Por asgjë nuk ndihmoi. Një ditë të tmerrshme u peshova dhe</t>
+    <t>Pastaj u ndjeva më e sigurt! Fillova palestrën. Gjithçka shkoi sipas planit, pesha ngadalë po largonte, unë u mësova të rri pothuajse pa ngrenë … Por, më pas, papritmas pesha ndaloi s`të uluri … Më zuri paniku. Natyrisht, fillova të angazhohem edhe më shumë duke e lodhur veten nga grevat e urisë dhe dietat ... Por asgjë nuk ndihmoi. Një ditë të tmerrshme u peshova dhe</t>
   </si>
   <si>
     <t>O ZOT +4 kg (((</t>
   </si>
   <si>
-    <t>Rashë ne depresion, gjysmë viti e një pune kaq të vështirë dhe gjithë pjesën tjetër ... I lashë gjithçka përsëri, u mbylla në shtëpi dhe fillova të haja. Natyrisht, pesha u rrit përsëri, por nuk u shqetësova, i dhashë fund vetes, jetës time dhe ëndrrave të mia .. Unë jam unë, por jo shoqja ime, gjë për të cilën i jam shumë mirënjohës asaj !!!</t>
+    <t>Rashë ne depresion, gjysmë viti e një pune kaq të vështirë dhe çdo gjë po shkonte mbrapsht ... E lashë gjithçka përsëri, u mbylla në shtëpi dhe fillova të haja. Natyrisht, pesha u rrit përsëri, por nuk u shqetësova, i dhashë fund vetes, jetës time dhe ëndrrave të mia .. Unë jam unë, por jo shoqja ime, gjë për të cilën i jam shumë mirënjohës!!!</t>
   </si>
   <si>
     <t>Ajo filloi të kërkojë mënyra</t>
@@ -219,7 +219,7 @@
     <t>për Slimagic</t>
   </si>
   <si>
-    <t>. Unë isha skeptike sepse nuk besoja se mund të humbisja peshe, sepse të gjithë thonë gjithmonë se për të humbur peshë, ju duhet të vuani nga uria dhe të lodheni me stërvitje, mirë, ose për njerëz të pasur dhe të dëshpëruar ekziston një opsion tjetër- operacion ... por unë lexova artikullin, po ju tregoj shkurt:</t>
+    <t>. Unë isha skeptike sepse nuk besoja se mund të humbisja peshe. Të gjithë thonë se për të humbur peshë, ju duhet të vuani nga uria dhe të lodheni me stërvitje, mirë, ose për njerëz të pasur dhe të dëshpëruar ekziston një opsion tjetër- operacion ... Unë lexova artikullin, po ju tregoj shkurt:</t>
   </si>
   <si>
     <t>- një lende unike e bazuar në propolis për humbjen e peshës. Ju lejon të eliminoni shpejt dhjamin e trupit dhe të fitoni një trup elegant, pa përdorur dieta dhe stërvitje të lodhshme.</t>
@@ -231,7 +231,7 @@
     <t>humbisni deri në 30 kg</t>
   </si>
   <si>
-    <t>Përrallë e bukur, apo jo? Por ishte e pamundur të refuzoja, nëse jo për hir të vetvetes, më paktën për hir të mikeshës sime, e cila u përpoq aq shumë për të më ndihmuar, çfarë mund të</t>
+    <t>Përrallë e bukur, apo jo? Por ishte e pamundur të refuzoja, jo për hir të vetvetes, por më paktën për hir të mikeshës sime, e cila u përpoq aq shumë për të më ndihmuar, çfarë mund të</t>
   </si>
   <si>
     <t>humbja përveç peshës?</t>
@@ -321,6 +321,9 @@
     <t>Dhe unë do t'ju them një sekret: "E gjeta Princin tim!)"</t>
   </si>
   <si>
+    <t>Të foto në të majtë jemi ne</t>
+  </si>
+  <si>
     <t>Komente</t>
   </si>
   <si>
@@ -333,133 +336,154 @@
     <t>Padyshim që do të porosis Slimagic</t>
   </si>
   <si>
+    <t>Përgjigju</t>
+  </si>
+  <si>
+    <t>Manjola</t>
+  </si>
+  <si>
+    <t>Anita, faleminderit shumë! Do ta tregoj patjetër!</t>
+  </si>
+  <si>
+    <t>Lira Unë</t>
+  </si>
+  <si>
+    <t>me një shoqen time po mbaja dietë me pjeshkë, arrita të</t>
+  </si>
+  <si>
+    <t>humbja -4 kg</t>
+  </si>
+  <si>
+    <t>, pastaj pesha gjithashtu u kthye dhe ngeli për një javë, porosita ilaçin, ata e dërguan brenda 4 ditëve direkt në apartament me korrier, unë përdora për 5 ditë dhe gjatë kësaj kohe e kam rënë 4 kg, shpresoj se pesha nuk do t’i</t>
+  </si>
+  <si>
+    <t>kthehet</t>
+  </si>
+  <si>
+    <t>Lira, jo pesha nuk do të kthehet, ajo vetëm do të iki, më besoni)</t>
+  </si>
+  <si>
+    <t>Valbona (Prizren)</t>
+  </si>
+  <si>
+    <t>Unë jam gati 42 vjeç, por pasi</t>
+  </si>
+  <si>
+    <t>humba peshën</t>
+  </si>
+  <si>
+    <t>fillova të dukem 5 vjet më te re, kryesisht për shkak se gjendja e lëkurës u përmirësua, dhe një bonus tjetër- nuk ka efekte anësore</t>
+  </si>
+  <si>
+    <t>Ervisa</t>
+  </si>
+  <si>
+    <t>Manjola, nuk ju besoj, nuk është e mundur të humbni peshë në një kohë kaq të shkurtër. Ju gënjeni njerëzve! Bleva këtë ilaç dhe nuk ka asnjë efekt.</t>
+  </si>
+  <si>
+    <t>Ervisa, por ku e keni blerë, unë mendoj se nuk e keni marrë në faqen zyrtare të internetit dhe keni blerë ilaç fallco?</t>
+  </si>
+  <si>
+    <t>Jo, jo në faqen zyrtare, pashë një reklam dhe e bleva.</t>
+  </si>
+  <si>
+    <t>Ervisa, porosisni në faqen zyrtare dhe shihni se cili do të jetë rezultati.</t>
+  </si>
+  <si>
+    <t>Manjola, unë ju dëgjova dhe porosita në dyqanin zyrtar, kam pirë për një javë dhe humba 3 kg. Faleminderit!</t>
+  </si>
+  <si>
+    <t>Klevina</t>
+  </si>
+  <si>
+    <t>Me la i dashuri im, unë ende e dua atë, ai më ushqeu gjithmonë pica dhe ushqim të shpejtë dhe tani kam shumë vithet, miqtë e tij nuk më pëlqyen mua dhe ata thanë që isha shume e shëndoshe, shkova në palestër por pesha nuk u lëviz, pash një reklamë dhe</t>
+  </si>
+  <si>
+    <t>porosita këtë ilaç</t>
+  </si>
+  <si>
+    <t>,e po, një muaj më vonë ish-i dashuri im më pa dhe më tha që isha shumë elegante, tani jemi përsëri bashke</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>krahasim me ilaçet të farmacisë, vetëm ky me dha efekt, humba</t>
+  </si>
+  <si>
+    <t>-3 kg në javë</t>
+  </si>
+  <si>
+    <t>, këtu e pashe rezultatet më të mira, por unë nuk jam e dëshpëruar, kam peshën të vogël</t>
+  </si>
+  <si>
+    <t>Alketa</t>
+  </si>
+  <si>
+    <t>Nuk me duhesh të ndryshoja jetën time të përditshëm! Zakonisht,</t>
+  </si>
+  <si>
+    <t>kur jeni duke humbur peshën,</t>
+  </si>
+  <si>
+    <t>ju duhet të ndiqni</t>
+  </si>
+  <si>
+    <t>dietat</t>
+  </si>
+  <si>
+    <t>, dhe përveç kësaj, të shkoni në palestër, por tani, pa asnjë përpjekje , falë përbërësve natyrorë të përzgjedhura, dhe pas 3 javësh arrita të kem një figurë seksi dhe organizëm të ushqyer më vitamina.</t>
+  </si>
+  <si>
+    <t>Dhurata</t>
+  </si>
+  <si>
+    <t>Edhe unë vendosa të</t>
+  </si>
+  <si>
+    <t>provoj ilaçin</t>
+  </si>
+  <si>
+    <t>. Ja çfarë kam arritur për në 1 muaj: minus 12 kg peshë të tepërt dhe minus 10 cm në bel. Kështu që njerëzit, nëse keni nevojë të humbni peshë shpejt, atëherë</t>
+  </si>
+  <si>
+    <t>është ai që ju duhet</t>
+  </si>
+  <si>
+    <t>Enxhi</t>
+  </si>
+  <si>
+    <t>Goca, ju këshilloj të porosisni! Djegës i dhjamit</t>
+  </si>
+  <si>
+    <t>të shkëlqyeshëm</t>
+  </si>
+  <si>
+    <t>. Ai jo vetëm që ndihmon në humbjen e peshës, por gjithashtu i siguron vitamina dhe minerale për organizëm gjatë procesit të humbjes së peshës. Dhe kjo do të thotë që gjithashtu forcon flokët dhe thonjtë, ngre imunitetin. Jam shumë i kënaqur që unë, falë kompleksit</t>
+  </si>
+  <si>
+    <t>humba 9 kg brenda javës</t>
+  </si>
+  <si>
+    <t>dhe fitova një rritje të energjisë.</t>
+  </si>
+  <si>
+    <t>Kejsi</t>
+  </si>
+  <si>
+    <t>A e dini nëse ky ilaç ka certifikatat</t>
+  </si>
+  <si>
+    <t>të cilësisë, sepse ka të</t>
+  </si>
+  <si>
+    <t>gjitha këto aftësie jo vetëm për të djegur dhjamin, por edhe për të rinovuar trupin? Dhe a është me të vërtetë e mundur që trupi bëhet qiri në vetëm 2-3 javë? A ka ndjekim të keq për gjendjen e sistemit nervor? Kam kaq shumë pyetje, kërkoj falje, por për veten time është shumë e rëndësishme.</t>
+  </si>
+  <si>
     <t>Përgjigje</t>
   </si>
   <si>
-    <t>Manjola</t>
-  </si>
-  <si>
-    <t>Anita, faleminderit shumë! Do ta tregoj patjetër!</t>
-  </si>
-  <si>
-    <t>Përgjigju</t>
-  </si>
-  <si>
-    <t>Lira Unë</t>
-  </si>
-  <si>
-    <t>me një shoqen time po mbaja dietë me pjeshkë, arrita të</t>
-  </si>
-  <si>
-    <t>humbja -4 kg</t>
-  </si>
-  <si>
-    <t>, pastaj pesha gjithashtu u kthye dhe ngeli për një javë, porosita ilaçin, ata e dërguan brenda 4 ditëve direkt në apartament me korrier, unë përdora për 5 ditë dhe gjatë kësaj kohe e kam rënë 4 kg, shpresoj se pesha nuk do t’i</t>
-  </si>
-  <si>
-    <t>kthehet</t>
-  </si>
-  <si>
-    <t>Lira, jo pesha nuk do të kthehet, ajo vetëm do të iki, më besoni)</t>
-  </si>
-  <si>
-    <t>Valbona (Prizren)</t>
-  </si>
-  <si>
-    <t>Unë jam gati 42 vjeç, por pasi</t>
-  </si>
-  <si>
-    <t>humba peshën</t>
-  </si>
-  <si>
-    <t>fillova të dukem 5 vjet më te re, kryesisht për shkak se gjendja e lëkurës u përmirësua, dhe një bonus tjetër- nuk ka efekte anësore</t>
-  </si>
-  <si>
-    <t>Klevina</t>
-  </si>
-  <si>
-    <t>Me la i dashuri im, unë ende e dua atë, ai më ushqeu gjithmonë pica dhe ushqim të shpejtë dhe tani kam shumë vithet, miqtë e tij nuk më pëlqyen mua dhe ata thanë që isha shume e shëndoshe, shkova në palestër por pesha nuk u lëviz, pash një reklamë dhe</t>
-  </si>
-  <si>
-    <t>porosita këtë ilaç</t>
-  </si>
-  <si>
-    <t>,e po, një muaj më vonë ish-i dashuri im më pa dhe më tha që isha shumë elegante, tani jemi përsëri bashke</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>krahasim me ilaçet të farmacisë, vetëm ky me dha efekt, humba</t>
-  </si>
-  <si>
-    <t>-3 kg në javë</t>
-  </si>
-  <si>
-    <t>, këtu e pashe rezultatet më të mira, por unë nuk jam e dëshpëruar, kam peshën të vogël</t>
-  </si>
-  <si>
-    <t>Alketa</t>
-  </si>
-  <si>
-    <t>Nuk me duhesh të ndryshoja jetën time të përditshëm! Zakonisht,</t>
-  </si>
-  <si>
-    <t>kur jeni duke humbur peshën,</t>
-  </si>
-  <si>
-    <t>ju duhet të ndiqni</t>
-  </si>
-  <si>
-    <t>dietat</t>
-  </si>
-  <si>
-    <t>, dhe përveç kësaj, të shkoni në palestër, por tani, pa asnjë përpjekje , falë përbërësve natyrorë të përzgjedhura, dhe pas 3 javësh arrita të kem një figurë seksi dhe organizëm të ushqyer më vitamina.</t>
-  </si>
-  <si>
-    <t>Dhurata</t>
-  </si>
-  <si>
-    <t>Edhe unë vendosa të</t>
-  </si>
-  <si>
-    <t>provoj ilaçin</t>
-  </si>
-  <si>
-    <t>. Ja çfarë kam arritur për në 1 muaj: minus 12 kg peshë të tepërt dhe minus 10 cm në bel. Kështu që njerëzit, nëse keni nevojë të humbni peshë shpejt, atëherë</t>
-  </si>
-  <si>
-    <t>është ai që ju duhet</t>
-  </si>
-  <si>
-    <t>Enxhi</t>
-  </si>
-  <si>
-    <t>Goca, ju këshilloj të porosisni! Djegës i dhjamit</t>
-  </si>
-  <si>
-    <t>të shkëlqyeshëm</t>
-  </si>
-  <si>
-    <t>. Ai jo vetëm që ndihmon në humbjen e peshës, por gjithashtu i siguron vitamina dhe minerale për organizëm gjatë procesit të humbjes së peshës. Dhe kjo do të thotë që gjithashtu forcon flokët dhe thonjtë, ngre imunitetin. Jam shumë i kënaqur që unë, falë kompleksit</t>
-  </si>
-  <si>
-    <t>humba 9 kg brenda javës</t>
-  </si>
-  <si>
-    <t>dhe fitova një rritje të energjisë.</t>
-  </si>
-  <si>
-    <t>Kejsi</t>
-  </si>
-  <si>
-    <t>A e dini nëse ky ilaç ka certifikatat</t>
-  </si>
-  <si>
-    <t>të cilësisë, sepse ka të</t>
-  </si>
-  <si>
-    <t>gjitha këto aftësie jo vetëm për të djegur dhjamin, por edhe për të rinovuar trupin? Dhe a është me të vërtetë e mundur që trupi bëhet qiri në vetëm 2-3 javë? A ka ndjekim të keq për gjendjen e sistemit nervor? Kam kaq shumë pyetje, kërkoj falje, por për veten time është shumë e rëndësishme.</t>
+    <t>Fejzana</t>
   </si>
   <si>
     <t>Kejsi, po, patjetër qe ka certifikata. Sa për pyetjet të tjera, të them nga përvoja ime, ilaçi nuk ndikon keq në sistemin nervor, por përkundrazi, gjendja shpirtërore përmirësohet, ke shumë forcë dhe energji,</t>
@@ -519,10 +543,10 @@
     <t>Udhëtimet dhe ushqimet</t>
   </si>
   <si>
-    <t>Erjolke</t>
-  </si>
-  <si>
-    <t>Unë e njoh biznesin dhe të investimet</t>
+    <t>Aferdita</t>
+  </si>
+  <si>
+    <t>Çdo gje rreth biznesit dhe të investimet</t>
   </si>
   <si>
     <t>Zog në një pemë</t>
@@ -549,7 +573,7 @@
     <t>Ushqimet - varieteti kryesor</t>
   </si>
   <si>
-    <t>që fitova konkursin e fotografisë !!!</t>
+    <t>Fitova konkursin e fotografisë !!!</t>
   </si>
   <si>
     <t>&lt;!DOCTYPE html&gt;&lt;html lang="ru"&gt;&lt;head&gt;
@@ -661,9 +685,9 @@
 						&lt;/span&gt;&lt;br&gt; &lt;br&gt;&lt;span data-translate="46"&gt;И знаете, я встала и пошла!
 					&lt;/span&gt;&lt;/p&gt;&lt;br&gt;
 					&lt;div class="main__media"&gt;
-						&lt;img src="img/img_3.png" alt class="main__img main__img--3"&gt;
-						&lt;p class="main__source"&gt;&lt;span data-translate="47"&gt;Примерно на этих фото 120 кг..
-						&lt;/span&gt;&lt;/p&gt;
+						&lt;img src="img/img_3.png" alt class="main__img main__img--2"&gt;
+						&lt;b class="main__source"&gt;&lt;span data-translate="47"&gt;Примерно на этих фото 120 кг..
+						&lt;/span&gt;&lt;/b&gt;
 					&lt;/div&gt;
 					&lt;br&gt;
 					&lt;p&gt;&lt;a href&gt;&lt;span data-translate="48"&gt;первые 5кг&lt;/span&gt;&lt;/a&gt;&lt;span data-translate="49"&gt;я убирала дома, приседая по 10 раз, качая пресс (как могу), планка по 10 секунд
@@ -741,7 +765,7 @@
 					&lt;div class=</t>
   </si>
   <si>
-    <t xml:space="preserve">"main__media"&gt;
+    <t>"main__media"&gt;
 						&lt;img src="img/img_5.png" alt class="main__img main__img--5"&gt;
 						&lt;a href class="btn"&gt;&lt;span data-translate="81"&gt;Заказать сейчас&lt;/span&gt;&lt;/a&gt;
 						&lt;br&gt;
@@ -767,220 +791,296 @@
 						&lt;/span&gt;&lt;br&gt;&lt;br&gt;&lt;span data-translate="104"&gt;И скажу по секрету: “ Я встретила своего Принца!)”
 					&lt;/span&gt;&lt;/p&gt;
 					&lt;br&gt;
+					&lt;div class="main__media"&gt;
+						&lt;img src="img/img_6.png" alt class="main__img main__img--2"&gt;
+						&lt;br&gt;
+						&lt;b&gt;&lt;span data-translate="105"&gt;На фото слева это мы :)&lt;/span&gt;&lt;/b&gt;
+					&lt;/div&gt;
 					&lt;br&gt;
 					&lt;div class="comments"&gt;
-						&lt;h2 class="subtitle"&gt;&lt;span data-translate="105"&gt;Комментарии&lt;/span&gt;&lt;/h2&gt;
+						&lt;h2 class="subtitle"&gt;&lt;span data-translate="106"&gt;Комментарии&lt;/span&gt;&lt;/h2&gt;
 						&lt;div class="comments__block"&gt;
 							&lt;div class="comment"&gt;
 								&lt;img class="ava" src="img/ava_1.png" alt&gt;
-								&lt;div class="name"&gt;&lt;span data-translate="106"&gt;Анита
+								&lt;div class="name"&gt;&lt;span data-translate="107"&gt;Анита
 								&lt;/span&gt;&lt;/div&gt;
-								&lt;p&gt;&lt;span data-translate="107"&gt;Мария, какая вы умница, я за вас так рада, ваша подруга золото! Мне бы такую, но вы мне дали надежду,
+								&lt;p&gt;&lt;span data-translate="108"&gt;Мария, какая вы умница, я за вас так рада, ваша подруга золото! Мне бы такую, но вы мне дали надежду,
 									что всё возможно.
-									Я обязательно &lt;/span&gt;&lt;a href&gt;&lt;span data-translate="108"&gt;закажу Slimagic&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;
-								&lt;a href class="arrow"&gt;&lt;span data-translate="109"&gt;Ответить&lt;/span&gt;&lt;/a&gt;
+									Я обязательно &lt;/span&gt;&lt;a href&gt;&lt;span data-translate="109"&gt;закажу Slimagic&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;
+								&lt;a href class="arrow"&gt;&lt;span data-translate="110"&gt;Ответить&lt;/span&gt;&lt;/a&gt;
 							&lt;/div&gt;
-							&lt;div class="comment"&gt;
+							&lt;div c</t>
+  </si>
+  <si>
+    <t>lass="comment comment--vetc"&gt;
 								&lt;img class="ava" src="img/ava_2.png" alt&gt;
-								&lt;div class="name"&gt;&lt;span data-translate="110"&gt;Мария
+								&lt;div class="name"&gt;&lt;span data-translate="111"&gt;Мария
 								&lt;/span&gt;&lt;/div&gt;
-								&lt;p&gt;&lt;span data-translate="111"&gt;Анита, </t>
-  </si>
-  <si>
-    <t>спасибо большое! Обязательно ей передам!&lt;/span&gt;&lt;/p&gt;
-								&lt;a href class="arrow"&gt;&lt;span data-translate="112"&gt;Ответить&lt;/span&gt;&lt;/a&gt;
+								&lt;p&gt;&lt;span data-translate="112"&gt;Анита, спасибо большое! Обязательно ей передам!&lt;/span&gt;&lt;/p&gt;
+								&lt;a href class="arrow"&gt;&lt;span data-translate="113"&gt;Ответить&lt;/span&gt;&lt;/a&gt;
 							&lt;/div&gt;
-							&lt;div class="comment"&gt;
+							&lt;div class="comment "&gt;
 								&lt;img class="ava" src="img/ava_3.png" alt&gt;
-								&lt;div class="name"&gt;&lt;span data-translate="113"&gt;Zara
+								&lt;div class="name"&gt;&lt;span data-translate="114"&gt;Zara
 								&lt;/span&gt;&lt;/div&gt;
-								&lt;p&gt;&lt;span data-translate="114"&gt;Села с подругой на персиковую диету, мне получилось &lt;/span&gt;&lt;a href&gt;&lt;span data-translate="115"&gt;скинуть -4 кг&lt;/span&gt;&lt;/a&gt;&lt;span data-translate="116"&gt;, затем вес тоже встал и не уходил
+								&lt;p&gt;&lt;span data-translate="115"&gt;Села с подругой на персиковую диету, мне получилось &lt;/span&gt;&lt;a href&gt;&lt;span data-translate="116"&gt;скинуть -4 кг&lt;/span&gt;&lt;/a&gt;&lt;span data-translate="117"&gt;, затем вес тоже
+									встал и не уходил
 									целую неделю,
 									заказала препарат, прислали его за 4 дня прям в квартиру курьером, сижу уже 5 дней и за этот период
 									скинула еще -4 кг, надеюсь вес не станет&lt;/span&gt;&lt;/p&gt;
-								&lt;a href class="arrow"&gt;&lt;span data-translate="117"&gt;Ответить&lt;/span&gt;&lt;/a&gt;
+								&lt;a href class="arrow"&gt;&lt;span data-translate="118"&gt;Ответить&lt;/span&gt;&lt;/a&gt;
 							&lt;/div&gt;
-							&lt;div class="comment"&gt;
+							&lt;div class="comment comment--vetc"&gt;
 								&lt;img class="ava" src="img/ava_2.png" alt&gt;
-								&lt;div class="name"&gt;&lt;span data-translate="118"&gt;Мария
+								&lt;div class="name"&gt;&lt;span data-translate="119"&gt;Мария
 								&lt;/span&gt;&lt;/div&gt;
-								&lt;p&gt;&lt;span data-translate="119"&gt;Zara, нет не встанет, а будет только снижаться, поверьте мне)
+								&lt;p&gt;&lt;span data-translate="120"&gt;Zara, нет не встанет, а будет только снижаться, поверьте мне)
 								&lt;/span&gt;&lt;/p&gt;
-								&lt;a href class="arrow"&gt;&lt;span data-translate="120"&gt;Ответить&lt;/span&gt;&lt;/a&gt;
+								&lt;a href class="arrow"&gt;&lt;span data-translate="121"&gt;Ответить&lt;/span&gt;&lt;/a&gt;
 							&lt;/div&gt;
 							&lt;div class="comment"&gt;
 								&lt;img class="ava" src="img/ava_4.png" alt&gt;
-								&lt;div class="name"&gt;&lt;span data-translate="121"&gt;Варвара (Петропавловск-Камчатский)
+								&lt;div class="name"&gt;&lt;span data-translate="122"&gt;Варвара (Петропавловск-Камчатский)
 								&lt;/span&gt;&lt;/div&gt;
-								&lt;p&gt;&lt;span data-translate="122"&gt;Мне почти 42, но после &lt;/span&gt;&lt;a href&gt;&lt;span data-translate="123"&gt;похудения&lt;/span&gt;&lt;/a&gt;&lt;span data-translate="124"&gt;стала выглядеть моложе лет на 5, во многом из-за хорошей кожи,
+								&lt;p&gt;&lt;span data-translate="123"&gt;Мне почти 42, но после &lt;/span&gt;&lt;a href&gt;&lt;span data-translate="124"&gt;похудения&lt;/span&gt;&lt;/a&gt;&lt;span data-translate="125"&gt;стала выглядеть моложе лет на 5, во многом из-за
+									хорошей кожи,
 									бонусом считаю
 									отсутствие побочных явлений
 								&lt;/span&gt;&lt;/p&gt;
 								&lt;img src="img/comment1.png" alt style="width: 277px;" class="comment__img"&gt;
-								&lt;a href class="arrow"&gt;&lt;span data-translate="125"&gt;Ответить&lt;/span&gt;&lt;/a&gt;
+								&lt;a href class="arrow"&gt;&lt;span data-translate="126"&gt;Ответить&lt;/span&gt;&lt;/a&gt;
 							&lt;/div&gt;
 							&lt;div class="comment"&gt;
+								&lt;img class="ava" src="img/ava_14.png" alt&gt;
+								&lt;div class="name"&gt;&lt;span data-translate="127"&gt;Эвелина
+								&lt;/span&gt;&lt;/div&gt;
+								&lt;p&gt;&lt;span data-translate="128"&gt;Мария, я вам не верю, это не возможно так похудеть, за такое короткое время. Вы врете людям!!! Я покупала это средство и
+								никакого эффекта
+								&lt;/span&gt;&lt;/p&gt;
+								&lt;a href class="arrow"&gt;&lt;span data-translate="129"&gt;Ответить&lt;/span&gt;&lt;/a&gt;
+							&lt;/div&gt;
+									&lt;div class="comment comment--vetc"&gt;
+										&lt;img class="ava" src="img/ava_2.png" alt&gt;
+										&lt;div class="name"&gt;&lt;span data-translate="130"&gt;Мария
+										&lt;/span&gt;&lt;/div&gt;
+										&lt;p&gt;&lt;span data-translate="131"&gt;Эвелина, а где вы покупали, я думаю что не на официальном сайте и просто купили подделку?
+										&lt;/span&gt;&lt;/p&gt;
+										&lt;a href class="arrow"&gt;&lt;span data-translate="132"&gt;Ответить&lt;/span&gt;&lt;/a&gt;
+									&lt;/div&gt;
+											&lt;div class="comment comment--v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">etc"&gt;
+												&lt;img class="ava" src="img/ava_14.png" alt&gt;
+												&lt;div class="name"&gt;&lt;span data-translate="133"&gt;Эвелина
+												&lt;/span&gt;&lt;/div&gt;
+												&lt;p&gt;&lt;span data-translate="134"&gt;Нет, не на официальном сайте, увидела рекламу и купила.
+												&lt;/span&gt;&lt;/p&gt;
+												&lt;a href class="arrow"&gt;&lt;span data-translate="135"&gt;Ответить&lt;/span&gt;&lt;/a&gt;
+											&lt;/div&gt;
+													&lt;div class="comment comment--vetc"&gt;
+														&lt;img class="ava" src="img/ava_2.png" alt&gt;
+														&lt;div class="name"&gt;&lt;span data-translate="136"&gt;Мария
+														&lt;/span&gt;&lt;/div&gt;
+														&lt;p&gt;&lt;span data-translate="137"&gt;Эвелина, закажите на официальном сайте, и посмотрите какой будет результат.
+														&lt;/span&gt;&lt;/p&gt;
+														&lt;a href class="arrow"&gt;&lt;span data-translate="138"&gt;Ответить&lt;/span&gt;&lt;/a&gt;
+													&lt;/div&gt;
+															&lt;div class="comment comment--vetc"&gt;
+																&lt;img class="ava" src="img/ava_14.png" alt&gt;
+																&lt;div class="name"&gt;&lt;span data-translate="139"&gt;Эвелина
+																&lt;/span&gt;&lt;/div&gt;
+																&lt;p&gt;&lt;span data-translate="140"&gt;Мария, я послушалась вашего совета и заказала в официальном магазине, уже неделю пью и - 3 кг. Спасибо!
+																&lt;/span&gt;&lt;/p&gt;
+																&lt;a href class="arrow"&gt;&lt;span data-translate="141"&gt;Ответить&lt;/span&gt;&lt;/a&gt;
+															&lt;/div&gt;
+							&lt;div class="comment"&gt;
 								&lt;img class="ava" src="img/ava_5.png" alt&gt;
-								&lt;div class="name"&gt;&lt;span data-translate="126"&gt;Нур
+								&lt;div class="name"&gt;&lt;span data-translate="142"&gt;Нур
 								&lt;/span&gt;&lt;/div&gt;
-								&lt;p&gt;&lt;span data-translate="127"&gt;меня бросил парень, я его всё еще люблю, он меня закармливал пиццей и фастфудом и теперь у меня слишком большая попа,
-								его друзьям я не нравилась и они говорили что я жирная, я пошла в спортзал но вес не сдвинулся с места, увидела рекламу
-								и &lt;/span&gt;&lt;a href&gt;&lt;span data-translate="128"&gt;заказала это средство&lt;/span&gt;&lt;/a&gt;&lt;span data-translate="129"&gt;, в общем через месяц мой бывший парень увидел меня и сказал что я сильно исхудала, теперь мы
-								опять вместе
+								&lt;p&gt;&lt;span data-translate="143"&gt;меня бросил парень, я его всё еще люблю, он меня закармливал пиццей и фастфудом и теперь у меня
+									слишком большая попа,
+									его друзьям я не нравилась и они говорили что я жирная, я пошла в спортзал но вес не сдвинулся с
+									места, увидела рекламу
+									и &lt;/span&gt;&lt;a href&gt;&lt;span data-translate="144"&gt;заказала это средство&lt;/span&gt;&lt;/a&gt;&lt;span data-translate="145"&gt;, в общем через месяц мой бывший парень увидел меня и сказал что
+									я сильно исхудала, теперь мы
+									опять вместе
 								&lt;/span&gt;&lt;/p&gt;
-										&lt;img src="img/comment2.png" alt style="width: 100%;" class="comment__img"&gt;
-								&lt;a href class="arrow"&gt;&lt;span data-translate="130"&gt;Ответить&lt;/span&gt;&lt;/a&gt;
+								&lt;img src="img/comment2.png" alt style="width: 100%;" class="comment__img"&gt;
+								&lt;a href class="arrow"&gt;&lt;span data-translate="146"&gt;Ответить&lt;/span&gt;&lt;/a&gt;
 							&lt;/div&gt;
-								&lt;div class="comment"&gt;
-									&lt;img class="ava" src="img/ava_6.png" alt&gt;
-									&lt;div class="name"&gt;&lt;span data-translate="131"&gt;Y
-									&lt;/span&gt;&lt;/div&gt;
-									&lt;p&gt;&lt;span data-translate="132"&gt;по сравнению с любыми существующими аптечными препаратами, этот сработал на мне, пока &lt;/span&gt;&lt;a href&gt;&lt;sp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">an data-translate="133"&gt;-3 кг за неделю&lt;/span&gt;&lt;/a&gt;&lt;span data-translate="134"&gt;, тут пишут лучшие
+							&lt;div class="comment"&gt;
+								&lt;img class="ava" src="img/ava_6.png" alt&gt;
+								&lt;div class="name"&gt;&lt;span data-translate="147"&gt;Y
+								&lt;/span&gt;&lt;/div&gt;
+								&lt;p&gt;&lt;span data-translate="148"&gt;по сравнению с любыми существующими аптечными препаратами, этот сработал на мне, пока &lt;/span&gt;&lt;a href&gt;&lt;span data-translate="149"&gt;-3
+										кг за неделю&lt;/span&gt;&lt;/a&gt;&lt;span data-translate="150"&gt;, тут пишут лучшие
 									результаты но я не отчаиваюсь, вешу и так мало
-									&lt;/span&gt;&lt;/p&gt;
-									&lt;a href class="arrow"&gt;&lt;span data-translate="135"&gt;Ответить&lt;/span&gt;&lt;/a&gt;
-								&lt;/div&gt;
+								&lt;/span&gt;&lt;/p&gt;
+								&lt;a href class="arrow"&gt;&lt;span data-translate="151"&gt;Ответить&lt;/span&gt;&lt;/a&gt;
+							&lt;/div&gt;
 							&lt;div class="comment"&gt;
 								&lt;img class="ava" src="img/ava_7.png" alt&gt;
-								&lt;div class="name"&gt;&lt;span data-translate="136"&gt;Любовь
+								&lt;div class="name"&gt;&lt;span data-translate="152"&gt;Любовь
 								&lt;/span&gt;&lt;/div&gt;
-								&lt;p&gt;&lt;span data-translate="137"&gt;Даже не пришлось менять привычный образ жизни! Как правило, &lt;/span&gt;&lt;a href&gt;&lt;span data-translate="138"&gt;при похудении&lt;/span&gt;&lt;/a&gt;&lt;span data-translate="139"&gt;нужно соблюдать &lt;/span&gt;&lt;a href&gt;&lt;span data-translate="140"&gt;диеты&lt;/span&gt;&lt;/a&gt;&lt;span data-translate="141"&gt;, а еще помимо этого
-								ходить в тренажерный зал, а тут без лишних усилий, благодаря грамотному подбору натуральных составляющих, получила уже
-								через 3 неделю сексуальную фигуру и хорошую порцию витаминов для организма.
+								&lt;p&gt;&lt;span data-translate="153"&gt;Даже не пришлось менять </t>
+  </si>
+  <si>
+    <t xml:space="preserve">привычный образ жизни! Как правило, &lt;/span&gt;&lt;a href&gt;&lt;span data-translate="154"&gt;при похудении&lt;/span&gt;&lt;/a&gt;&lt;span data-translate="155"&gt;нужно
+									соблюдать &lt;/span&gt;&lt;a href&gt;&lt;span data-translate="156"&gt;диеты&lt;/span&gt;&lt;/a&gt;&lt;span data-translate="157"&gt;, а еще помимо этого
+									ходить в тренажерный зал, а тут без лишних усилий, благодаря грамотному подбору натуральных
+									составляющих, получила уже
+									через 3 неделю сексуальную фигуру и хорошую порцию витаминов для организма.
 								&lt;/span&gt;&lt;/p&gt;
 								&lt;img src="img/comment3.png" alt style="width: 242px;" class="comment__img"&gt;
-								&lt;a href class="arrow"&gt;&lt;span data-translate="142"&gt;Ответить&lt;/span&gt;&lt;/a&gt;
+								&lt;a href class="arrow"&gt;&lt;span data-translate="158"&gt;Ответить&lt;/span&gt;&lt;/a&gt;
 							&lt;/div&gt;
-								&lt;div class="comment"&gt;
-									&lt;img class="ava" src="img/ava_8.png" alt&gt;
-									&lt;div class="name"&gt;&lt;span data-translate="143"&gt;Вероника
-									&lt;/span&gt;&lt;/div&gt;
-									&lt;p&gt;&lt;span data-translate="144"&gt;Вот и я решила &lt;/span&gt;&lt;a href&gt;&lt;span data-translate="145"&gt;попробовать препарат&lt;/span&gt;&lt;/a&gt;&lt;span data-translate="146"&gt;. Вот что у меня получилось за 1 месяц: минус 12 кг лишнего веса и минус 10 см в
-									талии. Так что люди, если вам необходимо быстро похудеть, то &lt;/span&gt;&lt;a href&gt;&lt;span data-translate="147"&gt;Slimagic&lt;/span&gt;&lt;/a&gt;&lt;span data-translate="148"&gt;это то что вам нужно
-									&lt;/span&gt;&lt;/p&gt;
-									&lt;img src="img/comment4.png" alt style="width: 242px;" class="comment__img"&gt;
-									&lt;a href class="arrow"&gt;&lt;span data-translate="149"&gt;Ответить&lt;/span&gt;&lt;/a&gt;
-								&lt;/div&gt;
-									&lt;div class="comment"&gt;
-										&lt;img class="ava" src="img/ava_9.png" alt&gt;
-										&lt;div class="name"&gt;&lt;span data-translate="150"&gt;Ирина
-										&lt;/span&gt;&lt;/div&gt;
-										&lt;p&gt;&lt;span data-translate="151"&gt;Девчонки, советую заказать! Отличный &lt;/span&gt;&lt;a href&gt;&lt;span data-translate="152"&gt;жиросжигатель&lt;/span&gt;&lt;/a&gt;&lt;span data-translate="153"&gt;. Он не только помогает похудеть, но и обеспечивает на время процесса
-										снижения массы тела витаминами и минералами организм. А это значит укрепляет волосы и ногти, иммунитет поднимает. Меня
-										очень радует, что я благодаря комплексу &lt;/span&gt;&lt;a href&gt;&lt;span data-translate="154"&gt;9 кг за неделю скинула&lt;/span&gt;&lt;/a&gt;&lt;span data-translate="155"&gt;и получили заряд энергии.
-										&lt;/span&gt;&lt;/p&gt;
-										&lt;a href class="arrow"&gt;&lt;span data-translate="156"&gt;Ответить&lt;/span&gt;&lt;/a&gt;
-									&lt;/div&gt;
-										&lt;div class="comment"&gt;
-											&lt;img class="ava" src="img/ava_10.png" alt&gt;
-											&lt;div class="name"&gt;&lt;span data-translate="157"&gt;Алена
-											&lt;/span&gt;&lt;/div&gt;
-											&lt;p&gt;&lt;span data-translate="158"&gt;А вы знаете, если в наличии </t>
-  </si>
-  <si>
-    <t xml:space="preserve">сертификаты &lt;/span&gt;&lt;a href&gt;&lt;span data-translate="159"&gt;качества у средства&lt;/span&gt;&lt;/a&gt;&lt;span data-translate="160"&gt;способности не только сжигать жир, но и
-											омолаживать организм? И действительно ли реально, что фигура становится точеной уже через 2-3 недели? А для состояния
-											нервной системы не влияет ли плохо препарат? У меня столько вопросов, извиняюсь, но для моей особы это очень важно.
-											&lt;/span&gt;&lt;/p&gt;
-											&lt;a href class="arrow"&gt;&lt;span data-translate="161"&gt;Ответить&lt;/span&gt;&lt;/a&gt;
-										&lt;/div&gt;
-										&lt;div class="comment"&gt;
-											&lt;img class="ava" src="img/ava_2.png" alt&gt;
-											&lt;div class="name"&gt;&lt;span data-translate="162"&gt;Мария
-											&lt;/span&gt;&lt;/div&gt;
-											&lt;p&gt;&lt;span data-translate="163"&gt;Алена, сертификаты есть, точно. По остальным вопросам рассказываю по себе, организм на нервную систему плохо не влияет,
-											а даже наоборот, настроение хорошое, много сил и энергии, &lt;/span&gt;&lt;a href&gt;&lt;span data-translate="164"&gt;фигура у меня красивая&lt;/span&gt;&lt;/a&gt;&lt;span data-translate="165"&gt;видно по фото. А вообще зайдите на
-											&lt;/span&gt;&lt;a href&gt;&lt;span data-translate="166"&gt;официальный сайт&lt;/span&gt;&lt;/a&gt;&lt;span data-translate="167"&gt;оставить заявку, вам перезвонит менеджер и ответит на все вопросы.
-											&lt;/span&gt;&lt;/p&gt;
-											&lt;a href class="arrow"&gt;&lt;span data-translate="168"&gt;Ответить&lt;/span&gt;&lt;/a&gt;
-										&lt;/div&gt;
-											&lt;div class="comment"&gt;
-												&lt;img class="ava" src="img/ava_11.png" alt&gt;
-												&lt;div class="name"&gt;&lt;span data-translate="169"&gt;Диана
-												&lt;/span&gt;&lt;/div&gt;
-												&lt;p&gt;&lt;span data-translate="170"&gt;Я как диетолог подтверждаю, что комплекс действует эффективно, содержит только натуральные компоненты, в нем отсутствуют
-												вредные вещества, которые часто вызывают аллергию и проблемы с желудком. И вообще &lt;/span&gt;&lt;a href&gt;&lt;span data-translate="171"&gt;Slimagic&lt;/span&gt;&lt;/a&gt;&lt;span data-translate="172"&gt;является самым популярным
-												жиросжигателем 2019 года, настраивает систему пищеварения и метаболическую функцию на правильную работу. Масляный
-												экстракт кедра и чайные масла в комплексе нормализуют работу ЦНС, улучшают структуру волос и кожи, делают чистое лицо
-												(ликвидируют прыщи), избавляют от запасов заскорузлого жира. Важно только правильно применять жиросжигатель и не снижать
-												или превышать дозировки, тогда в течение небольшого времени вы &lt;/span&gt;&lt;a href&gt;&lt;span data-translate="173"&gt;распрощаетесь с 10-15 кг&lt;/span&gt;&lt;/a&gt;&lt;span data-translate="174"&gt;.
-												&lt;/span&gt;&lt;/p&gt;
-												&lt;a href class="arrow"&gt;&lt;span data-translate="175"&gt;Ответить&lt;/span&gt;&lt;/a&gt;
-											&lt;/div&gt;
-													&lt;div class="comment"&gt;
-														&lt;img class="ava" src="img/ava_12.png" alt&gt;
-														&lt;div class="name"&gt;&lt;span data-translate="176"&gt;Наталья
-														&lt;/span&gt;&lt;/div&gt;
-														&lt;p&gt;&lt;span data-translate="177"&gt;А оплата как происходит? И не может ли на фоне средства развиться аллергическая реакция? Мне, для своего организма,
-														последнее очень важно. Я вот читала, </t>
-  </si>
-  <si>
-    <t>что &lt;/span&gt;&lt;a href&gt;&lt;span data-translate="178"&gt;средство&lt;/span&gt;&lt;/a&gt;&lt;span data-translate="179"&gt;помогает также и для общего улучшения состояния организма. Правда?
-														&lt;/span&gt;&lt;/p&gt;
-														&lt;a href class="arrow"&gt;&lt;span data-translate="180"&gt;Ответить&lt;/span&gt;&lt;/a&gt;
-													&lt;/div&gt;
-														&lt;div class="comment"&gt;
-															&lt;img class="ava" src="img/ava_13.png" alt&gt;
-															&lt;div class="name"&gt;&lt;span data-translate="181"&gt;Марина
-															&lt;/span&gt;&lt;/div&gt;
-															&lt;p&gt;&lt;span data-translate="182"&gt;Наталья, &lt;/span&gt;&lt;a href&gt;&lt;span data-translate="183"&gt;жиросжигатель&lt;/span&gt;&lt;/a&gt;&lt;span data-translate="184"&gt;реально дело делает. Самые разрекламированные препараты на такое не способны кроме этого. Только
-															принимайте в соответствии с инструкцией по применению, тогда эффект уже через неделю будет. Оплачиваете курьеру
-															наличными
-															&lt;/span&gt;&lt;/p&gt;
-															&lt;a href class="arrow"&gt;&lt;span data-translate="185"&gt;Ответить&lt;/span&gt;&lt;/a&gt;
-														&lt;/div&gt;
+							&lt;div class="comment"&gt;
+								&lt;img class="ava" src="img/ava_8.png" alt&gt;
+								&lt;div class="name"&gt;&lt;span data-translate="159"&gt;Вероника
+								&lt;/span&gt;&lt;/div&gt;
+								&lt;p&gt;&lt;span data-translate="160"&gt;Вот и я решила &lt;/span&gt;&lt;a href&gt;&lt;span data-translate="161"&gt;попробовать препарат&lt;/span&gt;&lt;/a&gt;&lt;span data-translate="162"&gt;. Вот что у меня получилось за 1 месяц: минус 12 кг
+									лишнего веса и минус 10 см в
+									талии. Так что люди, если вам необходимо быстро похудеть, то &lt;/span&gt;&lt;a href&gt;&lt;span data-translate="163"&gt;Slimagic&lt;/span&gt;&lt;/a&gt;&lt;span data-translate="164"&gt;это то что вам
+									нужно
+								&lt;/span&gt;&lt;/p&gt;
+								&lt;img src="img/comment4.png" alt style="width: 242px;" class="comment__img"&gt;
+								&lt;a href class="arrow"&gt;&lt;span data-translate="165"&gt;Ответить&lt;/span&gt;&lt;/a&gt;
+							&lt;/div&gt;
+							&lt;div class="comment"&gt;
+								&lt;img class="ava" src="img/ava_9.png" alt&gt;
+								&lt;div class="name"&gt;&lt;span data-translate="166"&gt;Ирина
+								&lt;/span&gt;&lt;/div&gt;
+								&lt;p&gt;&lt;span data-translate="167"&gt;Девчонки, советую заказать! Отличный &lt;/span&gt;&lt;a href&gt;&lt;span data-translate="168"&gt;жиросжигатель&lt;/span&gt;&lt;/a&gt;&lt;span data-translate="169"&gt;. Он не только помогает похудеть, но
+									и обеспечивает на время процесса
+									снижения массы тела витаминами и минералами организм. А это значит укрепляет волосы и ногти, иммунитет
+									поднимает. Меня
+									очень радует, что я благодаря комплексу &lt;/span&gt;&lt;a href&gt;&lt;span data-translate="170"&gt;9 кг за неделю скинула&lt;/span&gt;&lt;/a&gt;&lt;span data-translate="171"&gt;и получили заряд
+									энергии.
+								&lt;/span&gt;&lt;/p&gt;
+								&lt;a href class="arrow"&gt;&lt;span data-translate="172"&gt;Ответить&lt;/span&gt;&lt;/a&gt;
+							&lt;/div&gt;
+							&lt;div class="comment"&gt;
+								&lt;img class="ava" src="img/ava_10.png" alt&gt;
+								&lt;div class="name"&gt;&lt;span data-translate="173"&gt;Алена
+								&lt;/span&gt;&lt;/div&gt;
+								&lt;p&gt;&lt;span data-translate="174"&gt;А вы знаете, если в наличии сертификаты &lt;/span&gt;&lt;a href&gt;&lt;span data-translate="175"&gt;качества у средства&lt;/span&gt;&lt;/a&gt;&lt;span data-translate="176"&gt;способности не только
+									сжигать жир, но и
+									омолаживать организм? И действительно ли реально, что фигура становится точеной уже через 2-3 недели?
+									А для состояния
+									нервной системы не влияет ли плохо препарат? У меня столько вопросов, извиняюсь, но для моей особы это
+									очень важно.
+								&lt;/span&gt;&lt;/p&gt;
+								&lt;a href </t>
+  </si>
+  <si>
+    <t>class="arrow"&gt;&lt;span data-translate="177"&gt;Ответить&lt;/span&gt;&lt;/a&gt;
+							&lt;/div&gt;
+							&lt;div class="comment comment--vetc"&gt;
+								&lt;img class="ava" src="img/ava_2.png" alt&gt;
+								&lt;div class="name"&gt;&lt;span data-translate="178"&gt;Мария
+								&lt;/span&gt;&lt;/div&gt;
+								&lt;p&gt;&lt;span data-translate="179"&gt;Алена, сертификаты есть, точно. По остальным вопросам рассказываю по себе, организм на нервную
+									систему плохо не влияет,
+									а даже наоборот, настроение хорошое, много сил и энергии, &lt;/span&gt;&lt;a href&gt;&lt;span data-translate="180"&gt;фигура у меня красивая&lt;/span&gt;&lt;/a&gt;&lt;span data-translate="181"&gt;видно
+									по фото. А вообще зайдите на
+									&lt;/span&gt;&lt;a href&gt;&lt;span data-translate="182"&gt;официальный сайт&lt;/span&gt;&lt;/a&gt;&lt;span data-translate="183"&gt;оставить заявку, вам перезвонит менеджер и ответит на все вопросы.
+								&lt;/span&gt;&lt;/p&gt;
+								&lt;a href class="arrow"&gt;&lt;span data-translate="184"&gt;Ответить&lt;/span&gt;&lt;/a&gt;
+							&lt;/div&gt;
+							&lt;div class="comment"&gt;
+								&lt;img class="ava" src="img/ava_11.png" alt&gt;
+								&lt;div class="name"&gt;&lt;span data-translate="185"&gt;Диана
+								&lt;/span&gt;&lt;/div&gt;
+								&lt;p&gt;&lt;span data-translate="186"&gt;Я как диетолог подтверждаю, что комплекс действует эффективно, содержит только натуральные
+									компоненты, в нем отсутствуют
+									вредные вещества, которые часто вызывают аллергию и проблемы с желудком. И вообще &lt;/span&gt;&lt;a href&gt;&lt;span data-translate="187"&gt;Slimagic&lt;/span&gt;&lt;/a&gt;&lt;span data-translate="188"&gt;является самым популярным
+									жиросжигателем 2019 года, настраивает систему пищеварения и метаболическую функцию на правильную
+									работу. Масляный
+									экстракт кедра и чайные масла в комплексе нормализуют работу ЦНС, улучшают структуру волос и кожи,
+									делают чистое лицо
+									(ликвидируют прыщи), избавляют от запасов заскорузлого жира. Важно только правильно применять
+									жиросжигатель и не снижать
+									или превышать дозировки, тогда в течение небольшого времени вы &lt;/span&gt;&lt;a href&gt;&lt;span data-translate="189"&gt;распрощаетесь с 10-15
+										кг&lt;/span&gt;&lt;/a&gt;&lt;span data-translate="190"&gt;.
+								&lt;/span&gt;&lt;/p&gt;
+								&lt;a href class="arrow"&gt;&lt;span data-translate="191"&gt;Ответить&lt;/span&gt;&lt;/a&gt;
+							&lt;/div&gt;
+							&lt;div class="comment"&gt;
+								&lt;img class="ava" src="img/ava_12.png" alt&gt;
+								&lt;div class="name"&gt;&lt;span data-translate="192"&gt;Наталья
+								&lt;/span&gt;&lt;/div&gt;
+								&lt;p&gt;&lt;span data-translate="193"&gt;А оплата как происходит? И не может ли на фоне средства развиться аллергическая реакция? Мне, для
+									своего организма,
+									последнее очень важно. Я вот читала, что &lt;/span&gt;&lt;a href&gt;&lt;span data-translate="194"&gt;средство&lt;/span&gt;&lt;/a&gt;&lt;span data-translate="195"&gt;помогает также и для общего улучшения
+									состояния организма. Правда?
+								&lt;/span&gt;&lt;/p&gt;
+								&lt;a href class="arrow"&gt;&lt;span data-translate="196"&gt;Ответить&lt;/span&gt;&lt;/a&gt;
+							&lt;/div&gt;
+							&lt;div class="comment comment--vetc"&gt;
+								&lt;img class="ava" src="img/ava_13.png" alt&gt;
+								&lt;div class="name"&gt;&lt;span data-translate="197"&gt;Марина
+								&lt;/span&gt;&lt;/div&gt;
+								&lt;p&gt;&lt;span dat</t>
+  </si>
+  <si>
+    <t>a-translate="198"&gt;Наталья, &lt;/span&gt;&lt;a href&gt;&lt;span data-translate="199"&gt;жиросжигатель&lt;/span&gt;&lt;/a&gt;&lt;span data-translate="200"&gt;реально дело делает. Самые разрекламированные препараты на
+									такое не способны кроме этого. Только
+									принимайте в соответствии с инструкцией по применению, тогда эффект уже через неделю будет.
+									Оплачиваете курьеру
+									наличными
+								&lt;/span&gt;&lt;/p&gt;
+								&lt;a href class="arrow"&gt;&lt;span data-translate="201"&gt;Ответить&lt;/span&gt;&lt;/a&gt;
+							&lt;/div&gt;
 						&lt;/div&gt;
 					&lt;/div&gt;
 				&lt;/div&gt;
 				&lt;div class="col-12 col-lg-3 sidebar"&gt;
 					&lt;div class="sidebar__wrapper"&gt;
 						&lt;div class="sidebar__bord sidebar__bord--top"&gt;
-							&lt;h2&gt;&lt;span data-translate="186"&gt;Мои социальные сети&lt;/span&gt;&lt;/h2&gt;
+							&lt;h2&gt;&lt;span data-translate="202"&gt;Мои социальные сети&lt;/span&gt;&lt;/h2&gt;
 							&lt;a href&gt;&lt;img src="img/soc.svg" alt&gt;&lt;/a&gt;
 						&lt;/div&gt;
 						&lt;div class="sidebar__main"&gt;
 							&lt;div class="sidebar__blog"&gt;
 								&lt;img src="img/new_1.png" alt&gt;
 								&lt;a href class="black"&gt;
-									&lt;b&gt;&lt;span data-translate="187"&gt;Антон Стиков&lt;/span&gt;&lt;/b&gt;
-									&lt;p&gt;&lt;span data-translate="188"&gt;Путешествия и еда&lt;/span&gt;&lt;/p&gt;
+									&lt;b&gt;&lt;span data-translate="203"&gt;Антон Стиков&lt;/span&gt;&lt;/b&gt;
+									&lt;p&gt;&lt;span data-translate="204"&gt;Путешествия и еда&lt;/span&gt;&lt;/p&gt;
 								&lt;/a&gt;
 							&lt;/div&gt;
 							&lt;div class="sidebar__blog"&gt;
 								&lt;img src="img/new_2.png" alt&gt;
 								&lt;a href class="black"&gt;
-									&lt;b&gt;&lt;span data-translate="189"&gt;Варюшка&lt;/span&gt;&lt;/b&gt;
-									&lt;p&gt;&lt;span data-translate="190"&gt;Умею в бизнес и инвестиции&lt;/span&gt;&lt;/p&gt;
+									&lt;b&gt;&lt;span data-translate="205"&gt;Варюшка&lt;/span&gt;&lt;/b&gt;
+									&lt;p&gt;&lt;span data-translate="206"&gt;Умею в бизнес и инвестиции&lt;/span&gt;&lt;/p&gt;
 								&lt;/a&gt;
 							&lt;/div&gt;
 							&lt;div class="sidebar__blog"&gt;
 								&lt;img src="img/new_3.png" alt&gt;
 								&lt;a href class="black"&gt;
-									&lt;b&gt;&lt;span data-translate="191"&gt;Птица на дереве&lt;/span&gt;&lt;/b&gt;
-									&lt;p&gt;&lt;span data-translate="192"&gt;Садоводство - &lt;/span&gt;&lt;br&gt;&lt;span data-translate="193"&gt;это не скучно&lt;/span&gt;&lt;/p&gt;
+									&lt;b&gt;&lt;span data-translate="207"&gt;Птица на дереве&lt;/span&gt;&lt;/b&gt;
+									&lt;p&gt;&lt;span data-translate="208"&gt;Садоводство - &lt;/span&gt;&lt;br&gt;&lt;span data-translate="209"&gt;это не скучно&lt;/span&gt;&lt;/p&gt;
 								&lt;/a&gt;
 							&lt;/div&gt;
 							&lt;div class="sidebar__blog"&gt;
 								&lt;img src="img/new_4.png" alt&gt;
 								&lt;a href class="black"&gt;
-									&lt;b&gt;&lt;span data-translate="194"&gt;Маша-Маша&lt;/span&gt;&lt;/b&gt;
-									&lt;p&gt;&lt;span data-translate="195"&gt;Как не заскучать с самим собой&lt;/span&gt;&lt;/p&gt;
+									&lt;b&gt;&lt;span data-translate="210"&gt;Маша-Маша&lt;/span&gt;&lt;/b&gt;
+									&lt;p&gt;&lt;span data-translate="211"&gt;Как не заскучать с самим собой&lt;/span&gt;&lt;/p&gt;
 								&lt;/a&gt;
 							&lt;/div&gt;
 						&lt;/div&gt;
 						&lt;div class="sidebar__bord sidebar__bord--bot"&gt;
-							&lt;h2&gt;&lt;span data-translate="196"&gt;Мои статьи&lt;/span&gt;&lt;/h2&gt;
+							&lt;h2&gt;&lt;span data-translate="212"&gt;Мои статьи&lt;/span&gt;&lt;/h2&gt;
 							&lt;a href&gt;
-								&lt;p&gt;&lt;span data-translate="197"&gt;Семьей на машине через весь материк&lt;/span&gt;&lt;/p&gt;
+								&lt;p&gt;&lt;span data-translate="213"&gt;Семьей на машине через весь материк&lt;/span&gt;&lt;/p&gt;
 							&lt;/a&gt;
 							&lt;a href&gt;
-								&lt;p&gt;&lt;span data-translate="198"&gt;Еда - главное разнообразие&lt;/span&gt;&lt;/p&gt;
+								&lt;p&gt;&lt;span data-translate="214"&gt;Еда - главное разнообразие&lt;/span&gt;&lt;/p&gt;
 							&lt;/a&gt;
 							&lt;a href&gt;
-								&lt;p&gt;&lt;span data-translate="199"&gt;Я выиграла конкурс фотографий!!!&lt;/span&gt;&lt;/p&gt;
+								&lt;p&gt;&lt;span data-translate="215"&gt;Я выиграла конкурс фотографий!!!&lt;/span&gt;&lt;/p&gt;
 							&lt;/a&gt;
 						&lt;/div&gt;
 					&lt;/div&gt;
@@ -988,10 +1088,7 @@
 			&lt;/div&gt;
 		&lt;/div&gt;
 	&lt;/main&gt;
-	&lt;script src="js/common.j</t>
-  </si>
-  <si>
-    <t>s"&gt;&lt;/script&gt;
+	&lt;script src="js/common.js"&gt;&lt;/script&gt;
 	&lt;script src="libs/carousel/owl.carousel.min.js"&gt;&lt;/script&gt;
 	&lt;script&gt;
 		const initDateComments = () =&gt; {
@@ -1003,7 +1100,10 @@
 		const getDay = (num) =&gt; {
 			let now = new Date();
 			let newDate = new Date(now.setDate(now.getDate() - num));
-			return `${('0' + newDate.getDate()).slice(-2)}.${('0' + (newDate.getMonth() + 1)).slice(-2)}.${newDate.getFullYear()}`
+			return `${('0' + newDate.getDate()).slice(-2)}.${('0' + (newDate.getMonth() + 1)).slice(-2)}.${newDate.getFullYe</t>
+  </si>
+  <si>
+    <t>ar()}`
 		}
 		initDateComments()
 	&lt;/script&gt;
@@ -1014,7 +1114,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -1030,36 +1130,51 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <color rgb="FF444950"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FFC00000"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border/>
-    <border>
-      <left style="thin">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -1078,24 +1193,42 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1313,7 +1446,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="123.44"/>
+    <col customWidth="1" min="1" max="1" width="123.56"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1367,17 +1500,17 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1411,7 +1544,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -1422,12 +1555,12 @@
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1437,12 +1570,12 @@
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="4" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1462,12 +1595,12 @@
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="4" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1487,12 +1620,12 @@
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="4" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1507,7 +1640,7 @@
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1577,12 +1710,12 @@
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="4" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1592,7 +1725,7 @@
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="5" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1602,12 +1735,12 @@
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="6" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1617,22 +1750,22 @@
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="4" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1642,32 +1775,32 @@
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="4" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="4" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="4" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="3" t="s">
+      <c r="A69" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="4" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1707,12 +1840,12 @@
       </c>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="3" t="s">
+      <c r="A80" s="4" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1797,12 +1930,12 @@
       </c>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="1" t="s">
+      <c r="A97" s="4" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="3" t="s">
+      <c r="A98" s="4" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1837,7 +1970,7 @@
       </c>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="1" t="s">
+      <c r="A105" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1878,2838 +2011,2873 @@
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="116" ht="15.75" customHeight="1">
+      <c r="A116" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="3" t="s">
+    <row r="117" ht="15.75" customHeight="1">
+      <c r="A117" s="4" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="1" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="1" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="127" ht="15.75" customHeight="1">
+      <c r="A127" s="8" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="3" t="s">
+    <row r="128" ht="15.75" customHeight="1">
+      <c r="A128" s="8" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="1" t="s">
+    <row r="129" ht="15.75" customHeight="1">
+      <c r="A129" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="130" ht="15.75" customHeight="1">
+      <c r="A130" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="131" ht="15.75" customHeight="1">
+      <c r="A131" s="8" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="1" t="s">
+    <row r="132" ht="15.75" customHeight="1">
+      <c r="A132" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="133" ht="15.75" customHeight="1">
+      <c r="A133" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="134" ht="15.75" customHeight="1">
+      <c r="A134" s="8" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="1" t="s">
+    <row r="135" ht="15.75" customHeight="1">
+      <c r="A135" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="136" ht="15.75" customHeight="1">
+      <c r="A136" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="137" ht="15.75" customHeight="1">
+      <c r="A137" s="8" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="1" t="s">
+    <row r="138" ht="15.75" customHeight="1">
+      <c r="A138" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="139" ht="15.75" customHeight="1">
+      <c r="A139" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="140" ht="15.75" customHeight="1">
+      <c r="A140" s="8" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="1" t="s">
+    <row r="141" ht="15.75" customHeight="1">
+      <c r="A141" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="142" ht="15.75" customHeight="1">
+      <c r="A142" s="4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="1" t="s">
+    <row r="143" ht="15.75" customHeight="1">
+      <c r="A143" s="4" t="s">
         <v>127</v>
-      </c>
-    </row>
-    <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="1" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
     </row>
     <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="1" t="s">
-        <v>0</v>
+        <v>130</v>
       </c>
     </row>
     <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="1" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
     </row>
     <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="1" t="s">
-        <v>140</v>
+        <v>107</v>
       </c>
     </row>
     <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="1" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="3" t="s">
-        <v>142</v>
+      <c r="A153" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="1" t="s">
-        <v>109</v>
+      <c r="A156" s="4" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="1" t="s">
-        <v>145</v>
+      <c r="A157" s="4" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="1" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
     </row>
     <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="3" t="s">
-        <v>148</v>
+      <c r="A160" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="1" t="s">
-        <v>106</v>
+        <v>142</v>
       </c>
     </row>
     <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="1" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="3" t="s">
-        <v>149</v>
+      <c r="A163" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="164" ht="15.75" customHeight="1">
       <c r="A164" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="1" t="s">
-        <v>151</v>
+        <v>107</v>
       </c>
     </row>
     <row r="166" ht="15.75" customHeight="1">
       <c r="A166" s="1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="1" t="s">
-        <v>109</v>
+      <c r="A168" s="4" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="1" t="s">
-        <v>154</v>
+      <c r="A169" s="4" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="3" t="s">
-        <v>155</v>
+      <c r="A170" s="1" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="1" t="s">
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="3" t="s">
-        <v>156</v>
+      <c r="A172" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="173" ht="15.75" customHeight="1">
       <c r="A173" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="174" ht="15.75" customHeight="1">
       <c r="A174" s="1" t="s">
-        <v>24</v>
+        <v>152</v>
       </c>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="1" t="s">
-        <v>109</v>
+      <c r="A175" s="4" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="1" t="s">
-        <v>158</v>
+      <c r="A176" s="4" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="177" ht="15.75" customHeight="1">
       <c r="A177" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="1" t="s">
-        <v>160</v>
+      <c r="A178" s="9" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="1" t="s">
-        <v>161</v>
+      <c r="A179" s="4" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="180" ht="15.75" customHeight="1">
       <c r="A180" s="1" t="s">
-        <v>109</v>
+        <v>158</v>
       </c>
     </row>
     <row r="181" ht="15.75" customHeight="1">
       <c r="A181" s="1" t="s">
-        <v>107</v>
+        <v>159</v>
       </c>
     </row>
     <row r="182" ht="15.75" customHeight="1">
       <c r="A182" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="183" ht="15.75" customHeight="1">
       <c r="A183" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="184" ht="15.75" customHeight="1">
+      <c r="A184" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="185" ht="15.75" customHeight="1">
+      <c r="A185" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="186" ht="15.75" customHeight="1">
+      <c r="A186" s="4" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="3" t="s">
+    <row r="187" ht="15.75" customHeight="1">
+      <c r="A187" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" ht="15.75" customHeight="1">
+      <c r="A188" s="4" t="s">
         <v>164</v>
-      </c>
-    </row>
-    <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="1" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="189" ht="15.75" customHeight="1">
       <c r="A189" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="1" t="s">
-        <v>169</v>
+        <v>24</v>
       </c>
     </row>
     <row r="191" ht="15.75" customHeight="1">
       <c r="A191" s="1" t="s">
-        <v>170</v>
+        <v>107</v>
       </c>
     </row>
     <row r="192" ht="15.75" customHeight="1">
       <c r="A192" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="193" ht="15.75" customHeight="1">
       <c r="A193" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="194" ht="15.75" customHeight="1">
       <c r="A194" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="195" ht="15.75" customHeight="1">
       <c r="A195" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="196" ht="15.75" customHeight="1">
       <c r="A196" s="1" t="s">
-        <v>175</v>
+        <v>107</v>
       </c>
     </row>
     <row r="197" ht="15.75" customHeight="1">
       <c r="A197" s="1" t="s">
-        <v>176</v>
+        <v>108</v>
       </c>
     </row>
     <row r="198" ht="15.75" customHeight="1">
       <c r="A198" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="199" ht="15.75" customHeight="1">
+      <c r="A199" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="200" ht="15.75" customHeight="1">
+      <c r="A200" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="201" ht="15.75" customHeight="1">
+      <c r="A201" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="202" ht="15.75" customHeight="1">
+      <c r="A202" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="203" ht="15.75" customHeight="1">
+      <c r="A203" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="204" ht="15.75" customHeight="1">
+      <c r="A204" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="205" ht="15.75" customHeight="1">
+      <c r="A205" s="10" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="206" ht="15.75" customHeight="1">
+      <c r="A206" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="1" t="s">
+    <row r="207" ht="15.75" customHeight="1">
+      <c r="A207" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="4"/>
-    </row>
-    <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="5"/>
-    </row>
-    <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="5"/>
-    </row>
-    <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="5"/>
-    </row>
-    <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="5"/>
-    </row>
-    <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="5"/>
-    </row>
-    <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="5"/>
-    </row>
-    <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="5"/>
-    </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="5"/>
+      <c r="A208" s="1" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="5"/>
+      <c r="A209" s="1" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="5"/>
+      <c r="A210" s="1" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="5"/>
+      <c r="A211" s="1" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="5"/>
+      <c r="A212" s="1" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="5"/>
+      <c r="A213" s="1" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="5"/>
+      <c r="A214" s="1" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="5"/>
+      <c r="A215" s="3" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="5"/>
+      <c r="A216" s="11"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="5"/>
+      <c r="A217" s="11"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="5"/>
+      <c r="A218" s="11"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="5"/>
+      <c r="A219" s="11"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="5"/>
+      <c r="A220" s="11"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="A221" s="5"/>
+      <c r="A221" s="11"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="A222" s="5"/>
+      <c r="A222" s="11"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
-      <c r="A223" s="5"/>
+      <c r="A223" s="11"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="A224" s="5"/>
+      <c r="A224" s="11"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
-      <c r="A225" s="5"/>
+      <c r="A225" s="11"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
-      <c r="A226" s="5"/>
+      <c r="A226" s="11"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
-      <c r="A227" s="5"/>
+      <c r="A227" s="11"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
-      <c r="A228" s="5"/>
+      <c r="A228" s="11"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
-      <c r="A229" s="5"/>
+      <c r="A229" s="11"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
-      <c r="A230" s="5"/>
+      <c r="A230" s="11"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
-      <c r="A231" s="5"/>
+      <c r="A231" s="11"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
-      <c r="A232" s="5"/>
+      <c r="A232" s="11"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
-      <c r="A233" s="5"/>
+      <c r="A233" s="11"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
-      <c r="A234" s="5"/>
+      <c r="A234" s="11"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
-      <c r="A235" s="5"/>
+      <c r="A235" s="11"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
-      <c r="A236" s="5"/>
+      <c r="A236" s="11"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
-      <c r="A237" s="5"/>
+      <c r="A237" s="11"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
-      <c r="A238" s="5"/>
+      <c r="A238" s="11"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
-      <c r="A239" s="5"/>
+      <c r="A239" s="11"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
-      <c r="A240" s="5"/>
+      <c r="A240" s="11"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
-      <c r="A241" s="5"/>
+      <c r="A241" s="11"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
-      <c r="A242" s="5"/>
+      <c r="A242" s="11"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
-      <c r="A243" s="5"/>
+      <c r="A243" s="11"/>
     </row>
     <row r="244" ht="15.75" customHeight="1">
-      <c r="A244" s="5"/>
+      <c r="A244" s="11"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
-      <c r="A245" s="5"/>
+      <c r="A245" s="11"/>
     </row>
     <row r="246" ht="15.75" customHeight="1">
-      <c r="A246" s="5"/>
+      <c r="A246" s="11"/>
     </row>
     <row r="247" ht="15.75" customHeight="1">
-      <c r="A247" s="5"/>
+      <c r="A247" s="11"/>
     </row>
     <row r="248" ht="15.75" customHeight="1">
-      <c r="A248" s="5"/>
+      <c r="A248" s="11"/>
     </row>
     <row r="249" ht="15.75" customHeight="1">
-      <c r="A249" s="5"/>
+      <c r="A249" s="11"/>
     </row>
     <row r="250" ht="15.75" customHeight="1">
-      <c r="A250" s="5"/>
+      <c r="A250" s="11"/>
     </row>
     <row r="251" ht="15.75" customHeight="1">
-      <c r="A251" s="5"/>
+      <c r="A251" s="11"/>
     </row>
     <row r="252" ht="15.75" customHeight="1">
-      <c r="A252" s="5"/>
+      <c r="A252" s="11"/>
     </row>
     <row r="253" ht="15.75" customHeight="1">
-      <c r="A253" s="5"/>
+      <c r="A253" s="11"/>
     </row>
     <row r="254" ht="15.75" customHeight="1">
-      <c r="A254" s="5"/>
+      <c r="A254" s="11"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
-      <c r="A255" s="5"/>
+      <c r="A255" s="11"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
-      <c r="A256" s="5"/>
+      <c r="A256" s="11"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
-      <c r="A257" s="5"/>
+      <c r="A257" s="11"/>
     </row>
     <row r="258" ht="15.75" customHeight="1">
-      <c r="A258" s="5"/>
+      <c r="A258" s="11"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
-      <c r="A259" s="5"/>
+      <c r="A259" s="11"/>
     </row>
     <row r="260" ht="15.75" customHeight="1">
-      <c r="A260" s="5"/>
+      <c r="A260" s="11"/>
     </row>
     <row r="261" ht="15.75" customHeight="1">
-      <c r="A261" s="5"/>
+      <c r="A261" s="11"/>
     </row>
     <row r="262" ht="15.75" customHeight="1">
-      <c r="A262" s="5"/>
+      <c r="A262" s="11"/>
     </row>
     <row r="263" ht="15.75" customHeight="1">
-      <c r="A263" s="5"/>
+      <c r="A263" s="11"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
-      <c r="A264" s="5"/>
+      <c r="A264" s="11"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
-      <c r="A265" s="5"/>
+      <c r="A265" s="11"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
-      <c r="A266" s="5"/>
+      <c r="A266" s="11"/>
     </row>
     <row r="267" ht="15.75" customHeight="1">
-      <c r="A267" s="5"/>
+      <c r="A267" s="11"/>
     </row>
     <row r="268" ht="15.75" customHeight="1">
-      <c r="A268" s="5"/>
+      <c r="A268" s="11"/>
     </row>
     <row r="269" ht="15.75" customHeight="1">
-      <c r="A269" s="5"/>
+      <c r="A269" s="11"/>
     </row>
     <row r="270" ht="15.75" customHeight="1">
-      <c r="A270" s="5"/>
+      <c r="A270" s="11"/>
     </row>
     <row r="271" ht="15.75" customHeight="1">
-      <c r="A271" s="5"/>
+      <c r="A271" s="11"/>
     </row>
     <row r="272" ht="15.75" customHeight="1">
-      <c r="A272" s="5"/>
+      <c r="A272" s="11"/>
     </row>
     <row r="273" ht="15.75" customHeight="1">
-      <c r="A273" s="5"/>
+      <c r="A273" s="11"/>
     </row>
     <row r="274" ht="15.75" customHeight="1">
-      <c r="A274" s="5"/>
+      <c r="A274" s="11"/>
     </row>
     <row r="275" ht="15.75" customHeight="1">
-      <c r="A275" s="5"/>
+      <c r="A275" s="11"/>
     </row>
     <row r="276" ht="15.75" customHeight="1">
-      <c r="A276" s="5"/>
+      <c r="A276" s="11"/>
     </row>
     <row r="277" ht="15.75" customHeight="1">
-      <c r="A277" s="5"/>
+      <c r="A277" s="11"/>
     </row>
     <row r="278" ht="15.75" customHeight="1">
-      <c r="A278" s="5"/>
+      <c r="A278" s="11"/>
     </row>
     <row r="279" ht="15.75" customHeight="1">
-      <c r="A279" s="5"/>
+      <c r="A279" s="11"/>
     </row>
     <row r="280" ht="15.75" customHeight="1">
-      <c r="A280" s="5"/>
+      <c r="A280" s="11"/>
     </row>
     <row r="281" ht="15.75" customHeight="1">
-      <c r="A281" s="5"/>
+      <c r="A281" s="11"/>
     </row>
     <row r="282" ht="15.75" customHeight="1">
-      <c r="A282" s="5"/>
+      <c r="A282" s="11"/>
     </row>
     <row r="283" ht="15.75" customHeight="1">
-      <c r="A283" s="5"/>
+      <c r="A283" s="11"/>
     </row>
     <row r="284" ht="15.75" customHeight="1">
-      <c r="A284" s="5"/>
+      <c r="A284" s="11"/>
     </row>
     <row r="285" ht="15.75" customHeight="1">
-      <c r="A285" s="5"/>
+      <c r="A285" s="11"/>
     </row>
     <row r="286" ht="15.75" customHeight="1">
-      <c r="A286" s="5"/>
+      <c r="A286" s="11"/>
     </row>
     <row r="287" ht="15.75" customHeight="1">
-      <c r="A287" s="5"/>
+      <c r="A287" s="11"/>
     </row>
     <row r="288" ht="15.75" customHeight="1">
-      <c r="A288" s="5"/>
+      <c r="A288" s="11"/>
     </row>
     <row r="289" ht="15.75" customHeight="1">
-      <c r="A289" s="5"/>
+      <c r="A289" s="11"/>
     </row>
     <row r="290" ht="15.75" customHeight="1">
-      <c r="A290" s="5"/>
+      <c r="A290" s="11"/>
     </row>
     <row r="291" ht="15.75" customHeight="1">
-      <c r="A291" s="5"/>
+      <c r="A291" s="11"/>
     </row>
     <row r="292" ht="15.75" customHeight="1">
-      <c r="A292" s="5"/>
+      <c r="A292" s="11"/>
     </row>
     <row r="293" ht="15.75" customHeight="1">
-      <c r="A293" s="5"/>
+      <c r="A293" s="11"/>
     </row>
     <row r="294" ht="15.75" customHeight="1">
-      <c r="A294" s="5"/>
+      <c r="A294" s="11"/>
     </row>
     <row r="295" ht="15.75" customHeight="1">
-      <c r="A295" s="5"/>
+      <c r="A295" s="11"/>
     </row>
     <row r="296" ht="15.75" customHeight="1">
-      <c r="A296" s="5"/>
+      <c r="A296" s="11"/>
     </row>
     <row r="297" ht="15.75" customHeight="1">
-      <c r="A297" s="5"/>
+      <c r="A297" s="11"/>
     </row>
     <row r="298" ht="15.75" customHeight="1">
-      <c r="A298" s="5"/>
+      <c r="A298" s="11"/>
     </row>
     <row r="299" ht="15.75" customHeight="1">
-      <c r="A299" s="5"/>
+      <c r="A299" s="11"/>
     </row>
     <row r="300" ht="15.75" customHeight="1">
-      <c r="A300" s="5"/>
+      <c r="A300" s="11"/>
     </row>
     <row r="301" ht="15.75" customHeight="1">
-      <c r="A301" s="5"/>
+      <c r="A301" s="11"/>
     </row>
     <row r="302" ht="15.75" customHeight="1">
-      <c r="A302" s="5"/>
+      <c r="A302" s="11"/>
     </row>
     <row r="303" ht="15.75" customHeight="1">
-      <c r="A303" s="5"/>
+      <c r="A303" s="11"/>
     </row>
     <row r="304" ht="15.75" customHeight="1">
-      <c r="A304" s="5"/>
+      <c r="A304" s="11"/>
     </row>
     <row r="305" ht="15.75" customHeight="1">
-      <c r="A305" s="5"/>
+      <c r="A305" s="11"/>
     </row>
     <row r="306" ht="15.75" customHeight="1">
-      <c r="A306" s="5"/>
+      <c r="A306" s="11"/>
     </row>
     <row r="307" ht="15.75" customHeight="1">
-      <c r="A307" s="5"/>
+      <c r="A307" s="11"/>
     </row>
     <row r="308" ht="15.75" customHeight="1">
-      <c r="A308" s="5"/>
+      <c r="A308" s="11"/>
     </row>
     <row r="309" ht="15.75" customHeight="1">
-      <c r="A309" s="5"/>
+      <c r="A309" s="11"/>
     </row>
     <row r="310" ht="15.75" customHeight="1">
-      <c r="A310" s="5"/>
+      <c r="A310" s="11"/>
     </row>
     <row r="311" ht="15.75" customHeight="1">
-      <c r="A311" s="5"/>
+      <c r="A311" s="11"/>
     </row>
     <row r="312" ht="15.75" customHeight="1">
-      <c r="A312" s="5"/>
+      <c r="A312" s="11"/>
     </row>
     <row r="313" ht="15.75" customHeight="1">
-      <c r="A313" s="5"/>
+      <c r="A313" s="11"/>
     </row>
     <row r="314" ht="15.75" customHeight="1">
-      <c r="A314" s="5"/>
+      <c r="A314" s="11"/>
     </row>
     <row r="315" ht="15.75" customHeight="1">
-      <c r="A315" s="5"/>
+      <c r="A315" s="11"/>
     </row>
     <row r="316" ht="15.75" customHeight="1">
-      <c r="A316" s="5"/>
+      <c r="A316" s="11"/>
     </row>
     <row r="317" ht="15.75" customHeight="1">
-      <c r="A317" s="5"/>
+      <c r="A317" s="11"/>
     </row>
     <row r="318" ht="15.75" customHeight="1">
-      <c r="A318" s="5"/>
+      <c r="A318" s="11"/>
     </row>
     <row r="319" ht="15.75" customHeight="1">
-      <c r="A319" s="5"/>
+      <c r="A319" s="11"/>
     </row>
     <row r="320" ht="15.75" customHeight="1">
-      <c r="A320" s="5"/>
+      <c r="A320" s="11"/>
     </row>
     <row r="321" ht="15.75" customHeight="1">
-      <c r="A321" s="5"/>
+      <c r="A321" s="11"/>
     </row>
     <row r="322" ht="15.75" customHeight="1">
-      <c r="A322" s="5"/>
+      <c r="A322" s="11"/>
     </row>
     <row r="323" ht="15.75" customHeight="1">
-      <c r="A323" s="5"/>
+      <c r="A323" s="11"/>
     </row>
     <row r="324" ht="15.75" customHeight="1">
-      <c r="A324" s="5"/>
+      <c r="A324" s="11"/>
     </row>
     <row r="325" ht="15.75" customHeight="1">
-      <c r="A325" s="5"/>
+      <c r="A325" s="11"/>
     </row>
     <row r="326" ht="15.75" customHeight="1">
-      <c r="A326" s="5"/>
+      <c r="A326" s="11"/>
     </row>
     <row r="327" ht="15.75" customHeight="1">
-      <c r="A327" s="5"/>
+      <c r="A327" s="11"/>
     </row>
     <row r="328" ht="15.75" customHeight="1">
-      <c r="A328" s="5"/>
+      <c r="A328" s="11"/>
     </row>
     <row r="329" ht="15.75" customHeight="1">
-      <c r="A329" s="5"/>
+      <c r="A329" s="11"/>
     </row>
     <row r="330" ht="15.75" customHeight="1">
-      <c r="A330" s="5"/>
+      <c r="A330" s="11"/>
     </row>
     <row r="331" ht="15.75" customHeight="1">
-      <c r="A331" s="5"/>
+      <c r="A331" s="11"/>
     </row>
     <row r="332" ht="15.75" customHeight="1">
-      <c r="A332" s="5"/>
+      <c r="A332" s="11"/>
     </row>
     <row r="333" ht="15.75" customHeight="1">
-      <c r="A333" s="5"/>
+      <c r="A333" s="11"/>
     </row>
     <row r="334" ht="15.75" customHeight="1">
-      <c r="A334" s="5"/>
+      <c r="A334" s="11"/>
     </row>
     <row r="335" ht="15.75" customHeight="1">
-      <c r="A335" s="5"/>
+      <c r="A335" s="11"/>
     </row>
     <row r="336" ht="15.75" customHeight="1">
-      <c r="A336" s="5"/>
+      <c r="A336" s="11"/>
     </row>
     <row r="337" ht="15.75" customHeight="1">
-      <c r="A337" s="5"/>
+      <c r="A337" s="11"/>
     </row>
     <row r="338" ht="15.75" customHeight="1">
-      <c r="A338" s="5"/>
+      <c r="A338" s="11"/>
     </row>
     <row r="339" ht="15.75" customHeight="1">
-      <c r="A339" s="5"/>
+      <c r="A339" s="11"/>
     </row>
     <row r="340" ht="15.75" customHeight="1">
-      <c r="A340" s="5"/>
+      <c r="A340" s="11"/>
     </row>
     <row r="341" ht="15.75" customHeight="1">
-      <c r="A341" s="5"/>
+      <c r="A341" s="11"/>
     </row>
     <row r="342" ht="15.75" customHeight="1">
-      <c r="A342" s="5"/>
+      <c r="A342" s="11"/>
     </row>
     <row r="343" ht="15.75" customHeight="1">
-      <c r="A343" s="5"/>
+      <c r="A343" s="11"/>
     </row>
     <row r="344" ht="15.75" customHeight="1">
-      <c r="A344" s="5"/>
+      <c r="A344" s="11"/>
     </row>
     <row r="345" ht="15.75" customHeight="1">
-      <c r="A345" s="5"/>
+      <c r="A345" s="11"/>
     </row>
     <row r="346" ht="15.75" customHeight="1">
-      <c r="A346" s="5"/>
+      <c r="A346" s="11"/>
     </row>
     <row r="347" ht="15.75" customHeight="1">
-      <c r="A347" s="5"/>
+      <c r="A347" s="11"/>
     </row>
     <row r="348" ht="15.75" customHeight="1">
-      <c r="A348" s="5"/>
+      <c r="A348" s="11"/>
     </row>
     <row r="349" ht="15.75" customHeight="1">
-      <c r="A349" s="5"/>
+      <c r="A349" s="11"/>
     </row>
     <row r="350" ht="15.75" customHeight="1">
-      <c r="A350" s="5"/>
+      <c r="A350" s="11"/>
     </row>
     <row r="351" ht="15.75" customHeight="1">
-      <c r="A351" s="5"/>
+      <c r="A351" s="11"/>
     </row>
     <row r="352" ht="15.75" customHeight="1">
-      <c r="A352" s="5"/>
+      <c r="A352" s="11"/>
     </row>
     <row r="353" ht="15.75" customHeight="1">
-      <c r="A353" s="5"/>
+      <c r="A353" s="11"/>
     </row>
     <row r="354" ht="15.75" customHeight="1">
-      <c r="A354" s="5"/>
+      <c r="A354" s="11"/>
     </row>
     <row r="355" ht="15.75" customHeight="1">
-      <c r="A355" s="5"/>
+      <c r="A355" s="11"/>
     </row>
     <row r="356" ht="15.75" customHeight="1">
-      <c r="A356" s="5"/>
+      <c r="A356" s="11"/>
     </row>
     <row r="357" ht="15.75" customHeight="1">
-      <c r="A357" s="5"/>
+      <c r="A357" s="11"/>
     </row>
     <row r="358" ht="15.75" customHeight="1">
-      <c r="A358" s="5"/>
+      <c r="A358" s="11"/>
     </row>
     <row r="359" ht="15.75" customHeight="1">
-      <c r="A359" s="5"/>
+      <c r="A359" s="11"/>
     </row>
     <row r="360" ht="15.75" customHeight="1">
-      <c r="A360" s="5"/>
+      <c r="A360" s="11"/>
     </row>
     <row r="361" ht="15.75" customHeight="1">
-      <c r="A361" s="5"/>
+      <c r="A361" s="11"/>
     </row>
     <row r="362" ht="15.75" customHeight="1">
-      <c r="A362" s="5"/>
+      <c r="A362" s="11"/>
     </row>
     <row r="363" ht="15.75" customHeight="1">
-      <c r="A363" s="5"/>
+      <c r="A363" s="11"/>
     </row>
     <row r="364" ht="15.75" customHeight="1">
-      <c r="A364" s="5"/>
+      <c r="A364" s="11"/>
     </row>
     <row r="365" ht="15.75" customHeight="1">
-      <c r="A365" s="5"/>
+      <c r="A365" s="11"/>
     </row>
     <row r="366" ht="15.75" customHeight="1">
-      <c r="A366" s="5"/>
+      <c r="A366" s="11"/>
     </row>
     <row r="367" ht="15.75" customHeight="1">
-      <c r="A367" s="5"/>
+      <c r="A367" s="11"/>
     </row>
     <row r="368" ht="15.75" customHeight="1">
-      <c r="A368" s="5"/>
+      <c r="A368" s="11"/>
     </row>
     <row r="369" ht="15.75" customHeight="1">
-      <c r="A369" s="5"/>
+      <c r="A369" s="11"/>
     </row>
     <row r="370" ht="15.75" customHeight="1">
-      <c r="A370" s="5"/>
+      <c r="A370" s="11"/>
     </row>
     <row r="371" ht="15.75" customHeight="1">
-      <c r="A371" s="5"/>
+      <c r="A371" s="11"/>
     </row>
     <row r="372" ht="15.75" customHeight="1">
-      <c r="A372" s="5"/>
+      <c r="A372" s="11"/>
     </row>
     <row r="373" ht="15.75" customHeight="1">
-      <c r="A373" s="5"/>
+      <c r="A373" s="11"/>
     </row>
     <row r="374" ht="15.75" customHeight="1">
-      <c r="A374" s="5"/>
+      <c r="A374" s="11"/>
     </row>
     <row r="375" ht="15.75" customHeight="1">
-      <c r="A375" s="5"/>
+      <c r="A375" s="11"/>
     </row>
     <row r="376" ht="15.75" customHeight="1">
-      <c r="A376" s="5"/>
+      <c r="A376" s="11"/>
     </row>
     <row r="377" ht="15.75" customHeight="1">
-      <c r="A377" s="5"/>
+      <c r="A377" s="11"/>
     </row>
     <row r="378" ht="15.75" customHeight="1">
-      <c r="A378" s="5"/>
+      <c r="A378" s="11"/>
     </row>
     <row r="379" ht="15.75" customHeight="1">
-      <c r="A379" s="5"/>
+      <c r="A379" s="11"/>
     </row>
     <row r="380" ht="15.75" customHeight="1">
-      <c r="A380" s="5"/>
+      <c r="A380" s="11"/>
     </row>
     <row r="381" ht="15.75" customHeight="1">
-      <c r="A381" s="5"/>
+      <c r="A381" s="11"/>
     </row>
     <row r="382" ht="15.75" customHeight="1">
-      <c r="A382" s="5"/>
+      <c r="A382" s="11"/>
     </row>
     <row r="383" ht="15.75" customHeight="1">
-      <c r="A383" s="5"/>
+      <c r="A383" s="11"/>
     </row>
     <row r="384" ht="15.75" customHeight="1">
-      <c r="A384" s="5"/>
+      <c r="A384" s="11"/>
     </row>
     <row r="385" ht="15.75" customHeight="1">
-      <c r="A385" s="5"/>
+      <c r="A385" s="11"/>
     </row>
     <row r="386" ht="15.75" customHeight="1">
-      <c r="A386" s="5"/>
+      <c r="A386" s="11"/>
     </row>
     <row r="387" ht="15.75" customHeight="1">
-      <c r="A387" s="5"/>
+      <c r="A387" s="11"/>
     </row>
     <row r="388" ht="15.75" customHeight="1">
-      <c r="A388" s="5"/>
+      <c r="A388" s="11"/>
     </row>
     <row r="389" ht="15.75" customHeight="1">
-      <c r="A389" s="5"/>
+      <c r="A389" s="11"/>
     </row>
     <row r="390" ht="15.75" customHeight="1">
-      <c r="A390" s="5"/>
+      <c r="A390" s="11"/>
     </row>
     <row r="391" ht="15.75" customHeight="1">
-      <c r="A391" s="5"/>
+      <c r="A391" s="11"/>
     </row>
     <row r="392" ht="15.75" customHeight="1">
-      <c r="A392" s="5"/>
+      <c r="A392" s="11"/>
     </row>
     <row r="393" ht="15.75" customHeight="1">
-      <c r="A393" s="5"/>
+      <c r="A393" s="11"/>
     </row>
     <row r="394" ht="15.75" customHeight="1">
-      <c r="A394" s="5"/>
+      <c r="A394" s="11"/>
     </row>
     <row r="395" ht="15.75" customHeight="1">
-      <c r="A395" s="5"/>
+      <c r="A395" s="11"/>
     </row>
     <row r="396" ht="15.75" customHeight="1">
-      <c r="A396" s="5"/>
+      <c r="A396" s="11"/>
     </row>
     <row r="397" ht="15.75" customHeight="1">
-      <c r="A397" s="5"/>
+      <c r="A397" s="11"/>
     </row>
     <row r="398" ht="15.75" customHeight="1">
-      <c r="A398" s="5"/>
+      <c r="A398" s="11"/>
     </row>
     <row r="399" ht="15.75" customHeight="1">
-      <c r="A399" s="5"/>
+      <c r="A399" s="11"/>
     </row>
     <row r="400" ht="15.75" customHeight="1">
-      <c r="A400" s="5"/>
+      <c r="A400" s="11"/>
     </row>
     <row r="401" ht="15.75" customHeight="1">
-      <c r="A401" s="5"/>
+      <c r="A401" s="11"/>
     </row>
     <row r="402" ht="15.75" customHeight="1">
-      <c r="A402" s="5"/>
+      <c r="A402" s="11"/>
     </row>
     <row r="403" ht="15.75" customHeight="1">
-      <c r="A403" s="5"/>
+      <c r="A403" s="11"/>
     </row>
     <row r="404" ht="15.75" customHeight="1">
-      <c r="A404" s="5"/>
+      <c r="A404" s="11"/>
     </row>
     <row r="405" ht="15.75" customHeight="1">
-      <c r="A405" s="5"/>
+      <c r="A405" s="11"/>
     </row>
     <row r="406" ht="15.75" customHeight="1">
-      <c r="A406" s="5"/>
+      <c r="A406" s="11"/>
     </row>
     <row r="407" ht="15.75" customHeight="1">
-      <c r="A407" s="5"/>
+      <c r="A407" s="11"/>
     </row>
     <row r="408" ht="15.75" customHeight="1">
-      <c r="A408" s="5"/>
+      <c r="A408" s="11"/>
     </row>
     <row r="409" ht="15.75" customHeight="1">
-      <c r="A409" s="5"/>
+      <c r="A409" s="11"/>
     </row>
     <row r="410" ht="15.75" customHeight="1">
-      <c r="A410" s="5"/>
+      <c r="A410" s="11"/>
     </row>
     <row r="411" ht="15.75" customHeight="1">
-      <c r="A411" s="5"/>
+      <c r="A411" s="11"/>
     </row>
     <row r="412" ht="15.75" customHeight="1">
-      <c r="A412" s="5"/>
+      <c r="A412" s="11"/>
     </row>
     <row r="413" ht="15.75" customHeight="1">
-      <c r="A413" s="5"/>
+      <c r="A413" s="11"/>
     </row>
     <row r="414" ht="15.75" customHeight="1">
-      <c r="A414" s="5"/>
+      <c r="A414" s="11"/>
     </row>
     <row r="415" ht="15.75" customHeight="1">
-      <c r="A415" s="5"/>
+      <c r="A415" s="11"/>
     </row>
     <row r="416" ht="15.75" customHeight="1">
-      <c r="A416" s="5"/>
+      <c r="A416" s="11"/>
     </row>
     <row r="417" ht="15.75" customHeight="1">
-      <c r="A417" s="5"/>
+      <c r="A417" s="11"/>
     </row>
     <row r="418" ht="15.75" customHeight="1">
-      <c r="A418" s="5"/>
+      <c r="A418" s="11"/>
     </row>
     <row r="419" ht="15.75" customHeight="1">
-      <c r="A419" s="5"/>
+      <c r="A419" s="11"/>
     </row>
     <row r="420" ht="15.75" customHeight="1">
-      <c r="A420" s="5"/>
+      <c r="A420" s="11"/>
     </row>
     <row r="421" ht="15.75" customHeight="1">
-      <c r="A421" s="5"/>
+      <c r="A421" s="11"/>
     </row>
     <row r="422" ht="15.75" customHeight="1">
-      <c r="A422" s="5"/>
+      <c r="A422" s="11"/>
     </row>
     <row r="423" ht="15.75" customHeight="1">
-      <c r="A423" s="5"/>
+      <c r="A423" s="11"/>
     </row>
     <row r="424" ht="15.75" customHeight="1">
-      <c r="A424" s="5"/>
+      <c r="A424" s="11"/>
     </row>
     <row r="425" ht="15.75" customHeight="1">
-      <c r="A425" s="5"/>
+      <c r="A425" s="11"/>
     </row>
     <row r="426" ht="15.75" customHeight="1">
-      <c r="A426" s="5"/>
+      <c r="A426" s="11"/>
     </row>
     <row r="427" ht="15.75" customHeight="1">
-      <c r="A427" s="5"/>
+      <c r="A427" s="11"/>
     </row>
     <row r="428" ht="15.75" customHeight="1">
-      <c r="A428" s="5"/>
+      <c r="A428" s="11"/>
     </row>
     <row r="429" ht="15.75" customHeight="1">
-      <c r="A429" s="5"/>
+      <c r="A429" s="11"/>
     </row>
     <row r="430" ht="15.75" customHeight="1">
-      <c r="A430" s="5"/>
+      <c r="A430" s="11"/>
     </row>
     <row r="431" ht="15.75" customHeight="1">
-      <c r="A431" s="5"/>
+      <c r="A431" s="11"/>
     </row>
     <row r="432" ht="15.75" customHeight="1">
-      <c r="A432" s="5"/>
+      <c r="A432" s="11"/>
     </row>
     <row r="433" ht="15.75" customHeight="1">
-      <c r="A433" s="5"/>
+      <c r="A433" s="11"/>
     </row>
     <row r="434" ht="15.75" customHeight="1">
-      <c r="A434" s="5"/>
+      <c r="A434" s="11"/>
     </row>
     <row r="435" ht="15.75" customHeight="1">
-      <c r="A435" s="5"/>
+      <c r="A435" s="11"/>
     </row>
     <row r="436" ht="15.75" customHeight="1">
-      <c r="A436" s="5"/>
+      <c r="A436" s="11"/>
     </row>
     <row r="437" ht="15.75" customHeight="1">
-      <c r="A437" s="5"/>
+      <c r="A437" s="11"/>
     </row>
     <row r="438" ht="15.75" customHeight="1">
-      <c r="A438" s="5"/>
+      <c r="A438" s="11"/>
     </row>
     <row r="439" ht="15.75" customHeight="1">
-      <c r="A439" s="5"/>
+      <c r="A439" s="11"/>
     </row>
     <row r="440" ht="15.75" customHeight="1">
-      <c r="A440" s="5"/>
+      <c r="A440" s="11"/>
     </row>
     <row r="441" ht="15.75" customHeight="1">
-      <c r="A441" s="5"/>
+      <c r="A441" s="11"/>
     </row>
     <row r="442" ht="15.75" customHeight="1">
-      <c r="A442" s="5"/>
+      <c r="A442" s="11"/>
     </row>
     <row r="443" ht="15.75" customHeight="1">
-      <c r="A443" s="5"/>
+      <c r="A443" s="11"/>
     </row>
     <row r="444" ht="15.75" customHeight="1">
-      <c r="A444" s="5"/>
+      <c r="A444" s="11"/>
     </row>
     <row r="445" ht="15.75" customHeight="1">
-      <c r="A445" s="5"/>
+      <c r="A445" s="11"/>
     </row>
     <row r="446" ht="15.75" customHeight="1">
-      <c r="A446" s="5"/>
+      <c r="A446" s="11"/>
     </row>
     <row r="447" ht="15.75" customHeight="1">
-      <c r="A447" s="5"/>
+      <c r="A447" s="11"/>
     </row>
     <row r="448" ht="15.75" customHeight="1">
-      <c r="A448" s="5"/>
+      <c r="A448" s="11"/>
     </row>
     <row r="449" ht="15.75" customHeight="1">
-      <c r="A449" s="5"/>
+      <c r="A449" s="11"/>
     </row>
     <row r="450" ht="15.75" customHeight="1">
-      <c r="A450" s="5"/>
+      <c r="A450" s="11"/>
     </row>
     <row r="451" ht="15.75" customHeight="1">
-      <c r="A451" s="5"/>
+      <c r="A451" s="11"/>
     </row>
     <row r="452" ht="15.75" customHeight="1">
-      <c r="A452" s="5"/>
+      <c r="A452" s="11"/>
     </row>
     <row r="453" ht="15.75" customHeight="1">
-      <c r="A453" s="5"/>
+      <c r="A453" s="11"/>
     </row>
     <row r="454" ht="15.75" customHeight="1">
-      <c r="A454" s="5"/>
+      <c r="A454" s="11"/>
     </row>
     <row r="455" ht="15.75" customHeight="1">
-      <c r="A455" s="5"/>
+      <c r="A455" s="11"/>
     </row>
     <row r="456" ht="15.75" customHeight="1">
-      <c r="A456" s="5"/>
+      <c r="A456" s="11"/>
     </row>
     <row r="457" ht="15.75" customHeight="1">
-      <c r="A457" s="5"/>
+      <c r="A457" s="11"/>
     </row>
     <row r="458" ht="15.75" customHeight="1">
-      <c r="A458" s="5"/>
+      <c r="A458" s="11"/>
     </row>
     <row r="459" ht="15.75" customHeight="1">
-      <c r="A459" s="5"/>
+      <c r="A459" s="11"/>
     </row>
     <row r="460" ht="15.75" customHeight="1">
-      <c r="A460" s="5"/>
+      <c r="A460" s="11"/>
     </row>
     <row r="461" ht="15.75" customHeight="1">
-      <c r="A461" s="5"/>
+      <c r="A461" s="11"/>
     </row>
     <row r="462" ht="15.75" customHeight="1">
-      <c r="A462" s="5"/>
+      <c r="A462" s="11"/>
     </row>
     <row r="463" ht="15.75" customHeight="1">
-      <c r="A463" s="5"/>
+      <c r="A463" s="11"/>
     </row>
     <row r="464" ht="15.75" customHeight="1">
-      <c r="A464" s="5"/>
+      <c r="A464" s="11"/>
     </row>
     <row r="465" ht="15.75" customHeight="1">
-      <c r="A465" s="5"/>
+      <c r="A465" s="11"/>
     </row>
     <row r="466" ht="15.75" customHeight="1">
-      <c r="A466" s="5"/>
+      <c r="A466" s="11"/>
     </row>
     <row r="467" ht="15.75" customHeight="1">
-      <c r="A467" s="5"/>
+      <c r="A467" s="11"/>
     </row>
     <row r="468" ht="15.75" customHeight="1">
-      <c r="A468" s="5"/>
+      <c r="A468" s="11"/>
     </row>
     <row r="469" ht="15.75" customHeight="1">
-      <c r="A469" s="5"/>
+      <c r="A469" s="11"/>
     </row>
     <row r="470" ht="15.75" customHeight="1">
-      <c r="A470" s="5"/>
+      <c r="A470" s="11"/>
     </row>
     <row r="471" ht="15.75" customHeight="1">
-      <c r="A471" s="5"/>
+      <c r="A471" s="11"/>
     </row>
     <row r="472" ht="15.75" customHeight="1">
-      <c r="A472" s="5"/>
+      <c r="A472" s="11"/>
     </row>
     <row r="473" ht="15.75" customHeight="1">
-      <c r="A473" s="5"/>
+      <c r="A473" s="11"/>
     </row>
     <row r="474" ht="15.75" customHeight="1">
-      <c r="A474" s="5"/>
+      <c r="A474" s="11"/>
     </row>
     <row r="475" ht="15.75" customHeight="1">
-      <c r="A475" s="5"/>
+      <c r="A475" s="11"/>
     </row>
     <row r="476" ht="15.75" customHeight="1">
-      <c r="A476" s="5"/>
+      <c r="A476" s="11"/>
     </row>
     <row r="477" ht="15.75" customHeight="1">
-      <c r="A477" s="5"/>
+      <c r="A477" s="11"/>
     </row>
     <row r="478" ht="15.75" customHeight="1">
-      <c r="A478" s="5"/>
+      <c r="A478" s="11"/>
     </row>
     <row r="479" ht="15.75" customHeight="1">
-      <c r="A479" s="5"/>
+      <c r="A479" s="11"/>
     </row>
     <row r="480" ht="15.75" customHeight="1">
-      <c r="A480" s="5"/>
+      <c r="A480" s="11"/>
     </row>
     <row r="481" ht="15.75" customHeight="1">
-      <c r="A481" s="5"/>
+      <c r="A481" s="11"/>
     </row>
     <row r="482" ht="15.75" customHeight="1">
-      <c r="A482" s="5"/>
+      <c r="A482" s="11"/>
     </row>
     <row r="483" ht="15.75" customHeight="1">
-      <c r="A483" s="5"/>
+      <c r="A483" s="11"/>
     </row>
     <row r="484" ht="15.75" customHeight="1">
-      <c r="A484" s="5"/>
+      <c r="A484" s="11"/>
     </row>
     <row r="485" ht="15.75" customHeight="1">
-      <c r="A485" s="5"/>
+      <c r="A485" s="11"/>
     </row>
     <row r="486" ht="15.75" customHeight="1">
-      <c r="A486" s="5"/>
+      <c r="A486" s="11"/>
     </row>
     <row r="487" ht="15.75" customHeight="1">
-      <c r="A487" s="5"/>
+      <c r="A487" s="11"/>
     </row>
     <row r="488" ht="15.75" customHeight="1">
-      <c r="A488" s="5"/>
+      <c r="A488" s="11"/>
     </row>
     <row r="489" ht="15.75" customHeight="1">
-      <c r="A489" s="5"/>
+      <c r="A489" s="11"/>
     </row>
     <row r="490" ht="15.75" customHeight="1">
-      <c r="A490" s="5"/>
+      <c r="A490" s="11"/>
     </row>
     <row r="491" ht="15.75" customHeight="1">
-      <c r="A491" s="5"/>
+      <c r="A491" s="11"/>
     </row>
     <row r="492" ht="15.75" customHeight="1">
-      <c r="A492" s="5"/>
+      <c r="A492" s="11"/>
     </row>
     <row r="493" ht="15.75" customHeight="1">
-      <c r="A493" s="5"/>
+      <c r="A493" s="11"/>
     </row>
     <row r="494" ht="15.75" customHeight="1">
-      <c r="A494" s="5"/>
+      <c r="A494" s="11"/>
     </row>
     <row r="495" ht="15.75" customHeight="1">
-      <c r="A495" s="5"/>
+      <c r="A495" s="11"/>
     </row>
     <row r="496" ht="15.75" customHeight="1">
-      <c r="A496" s="5"/>
+      <c r="A496" s="11"/>
     </row>
     <row r="497" ht="15.75" customHeight="1">
-      <c r="A497" s="5"/>
+      <c r="A497" s="11"/>
     </row>
     <row r="498" ht="15.75" customHeight="1">
-      <c r="A498" s="5"/>
+      <c r="A498" s="11"/>
     </row>
     <row r="499" ht="15.75" customHeight="1">
-      <c r="A499" s="5"/>
+      <c r="A499" s="11"/>
     </row>
     <row r="500" ht="15.75" customHeight="1">
-      <c r="A500" s="5"/>
+      <c r="A500" s="11"/>
     </row>
     <row r="501" ht="15.75" customHeight="1">
-      <c r="A501" s="5"/>
+      <c r="A501" s="11"/>
     </row>
     <row r="502" ht="15.75" customHeight="1">
-      <c r="A502" s="5"/>
+      <c r="A502" s="11"/>
     </row>
     <row r="503" ht="15.75" customHeight="1">
-      <c r="A503" s="5"/>
+      <c r="A503" s="11"/>
     </row>
     <row r="504" ht="15.75" customHeight="1">
-      <c r="A504" s="5"/>
+      <c r="A504" s="11"/>
     </row>
     <row r="505" ht="15.75" customHeight="1">
-      <c r="A505" s="5"/>
+      <c r="A505" s="11"/>
     </row>
     <row r="506" ht="15.75" customHeight="1">
-      <c r="A506" s="5"/>
+      <c r="A506" s="11"/>
     </row>
     <row r="507" ht="15.75" customHeight="1">
-      <c r="A507" s="5"/>
+      <c r="A507" s="11"/>
     </row>
     <row r="508" ht="15.75" customHeight="1">
-      <c r="A508" s="5"/>
+      <c r="A508" s="11"/>
     </row>
     <row r="509" ht="15.75" customHeight="1">
-      <c r="A509" s="5"/>
+      <c r="A509" s="11"/>
     </row>
     <row r="510" ht="15.75" customHeight="1">
-      <c r="A510" s="5"/>
+      <c r="A510" s="11"/>
     </row>
     <row r="511" ht="15.75" customHeight="1">
-      <c r="A511" s="5"/>
+      <c r="A511" s="11"/>
     </row>
     <row r="512" ht="15.75" customHeight="1">
-      <c r="A512" s="5"/>
+      <c r="A512" s="11"/>
     </row>
     <row r="513" ht="15.75" customHeight="1">
-      <c r="A513" s="5"/>
+      <c r="A513" s="11"/>
     </row>
     <row r="514" ht="15.75" customHeight="1">
-      <c r="A514" s="5"/>
+      <c r="A514" s="11"/>
     </row>
     <row r="515" ht="15.75" customHeight="1">
-      <c r="A515" s="5"/>
+      <c r="A515" s="11"/>
     </row>
     <row r="516" ht="15.75" customHeight="1">
-      <c r="A516" s="5"/>
+      <c r="A516" s="11"/>
     </row>
     <row r="517" ht="15.75" customHeight="1">
-      <c r="A517" s="5"/>
+      <c r="A517" s="11"/>
     </row>
     <row r="518" ht="15.75" customHeight="1">
-      <c r="A518" s="5"/>
+      <c r="A518" s="11"/>
     </row>
     <row r="519" ht="15.75" customHeight="1">
-      <c r="A519" s="5"/>
+      <c r="A519" s="11"/>
     </row>
     <row r="520" ht="15.75" customHeight="1">
-      <c r="A520" s="5"/>
+      <c r="A520" s="11"/>
     </row>
     <row r="521" ht="15.75" customHeight="1">
-      <c r="A521" s="5"/>
+      <c r="A521" s="11"/>
     </row>
     <row r="522" ht="15.75" customHeight="1">
-      <c r="A522" s="5"/>
+      <c r="A522" s="11"/>
     </row>
     <row r="523" ht="15.75" customHeight="1">
-      <c r="A523" s="5"/>
+      <c r="A523" s="11"/>
     </row>
     <row r="524" ht="15.75" customHeight="1">
-      <c r="A524" s="5"/>
+      <c r="A524" s="11"/>
     </row>
     <row r="525" ht="15.75" customHeight="1">
-      <c r="A525" s="5"/>
+      <c r="A525" s="11"/>
     </row>
     <row r="526" ht="15.75" customHeight="1">
-      <c r="A526" s="5"/>
+      <c r="A526" s="11"/>
     </row>
     <row r="527" ht="15.75" customHeight="1">
-      <c r="A527" s="5"/>
+      <c r="A527" s="11"/>
     </row>
     <row r="528" ht="15.75" customHeight="1">
-      <c r="A528" s="5"/>
+      <c r="A528" s="11"/>
     </row>
     <row r="529" ht="15.75" customHeight="1">
-      <c r="A529" s="5"/>
+      <c r="A529" s="11"/>
     </row>
     <row r="530" ht="15.75" customHeight="1">
-      <c r="A530" s="5"/>
+      <c r="A530" s="11"/>
     </row>
     <row r="531" ht="15.75" customHeight="1">
-      <c r="A531" s="5"/>
+      <c r="A531" s="11"/>
     </row>
     <row r="532" ht="15.75" customHeight="1">
-      <c r="A532" s="5"/>
+      <c r="A532" s="11"/>
     </row>
     <row r="533" ht="15.75" customHeight="1">
-      <c r="A533" s="5"/>
+      <c r="A533" s="11"/>
     </row>
     <row r="534" ht="15.75" customHeight="1">
-      <c r="A534" s="5"/>
+      <c r="A534" s="11"/>
     </row>
     <row r="535" ht="15.75" customHeight="1">
-      <c r="A535" s="5"/>
+      <c r="A535" s="11"/>
     </row>
     <row r="536" ht="15.75" customHeight="1">
-      <c r="A536" s="5"/>
+      <c r="A536" s="11"/>
     </row>
     <row r="537" ht="15.75" customHeight="1">
-      <c r="A537" s="5"/>
+      <c r="A537" s="11"/>
     </row>
     <row r="538" ht="15.75" customHeight="1">
-      <c r="A538" s="5"/>
+      <c r="A538" s="11"/>
     </row>
     <row r="539" ht="15.75" customHeight="1">
-      <c r="A539" s="5"/>
+      <c r="A539" s="11"/>
     </row>
     <row r="540" ht="15.75" customHeight="1">
-      <c r="A540" s="5"/>
+      <c r="A540" s="11"/>
     </row>
     <row r="541" ht="15.75" customHeight="1">
-      <c r="A541" s="5"/>
+      <c r="A541" s="11"/>
     </row>
     <row r="542" ht="15.75" customHeight="1">
-      <c r="A542" s="5"/>
+      <c r="A542" s="11"/>
     </row>
     <row r="543" ht="15.75" customHeight="1">
-      <c r="A543" s="5"/>
+      <c r="A543" s="11"/>
     </row>
     <row r="544" ht="15.75" customHeight="1">
-      <c r="A544" s="5"/>
+      <c r="A544" s="11"/>
     </row>
     <row r="545" ht="15.75" customHeight="1">
-      <c r="A545" s="5"/>
+      <c r="A545" s="11"/>
     </row>
     <row r="546" ht="15.75" customHeight="1">
-      <c r="A546" s="5"/>
+      <c r="A546" s="11"/>
     </row>
     <row r="547" ht="15.75" customHeight="1">
-      <c r="A547" s="5"/>
+      <c r="A547" s="11"/>
     </row>
     <row r="548" ht="15.75" customHeight="1">
-      <c r="A548" s="5"/>
+      <c r="A548" s="11"/>
     </row>
     <row r="549" ht="15.75" customHeight="1">
-      <c r="A549" s="5"/>
+      <c r="A549" s="11"/>
     </row>
     <row r="550" ht="15.75" customHeight="1">
-      <c r="A550" s="5"/>
+      <c r="A550" s="11"/>
     </row>
     <row r="551" ht="15.75" customHeight="1">
-      <c r="A551" s="5"/>
+      <c r="A551" s="11"/>
     </row>
     <row r="552" ht="15.75" customHeight="1">
-      <c r="A552" s="5"/>
+      <c r="A552" s="11"/>
     </row>
     <row r="553" ht="15.75" customHeight="1">
-      <c r="A553" s="5"/>
+      <c r="A553" s="11"/>
     </row>
     <row r="554" ht="15.75" customHeight="1">
-      <c r="A554" s="5"/>
+      <c r="A554" s="11"/>
     </row>
     <row r="555" ht="15.75" customHeight="1">
-      <c r="A555" s="5"/>
+      <c r="A555" s="11"/>
     </row>
     <row r="556" ht="15.75" customHeight="1">
-      <c r="A556" s="5"/>
+      <c r="A556" s="11"/>
     </row>
     <row r="557" ht="15.75" customHeight="1">
-      <c r="A557" s="5"/>
+      <c r="A557" s="11"/>
     </row>
     <row r="558" ht="15.75" customHeight="1">
-      <c r="A558" s="5"/>
+      <c r="A558" s="11"/>
     </row>
     <row r="559" ht="15.75" customHeight="1">
-      <c r="A559" s="5"/>
+      <c r="A559" s="11"/>
     </row>
     <row r="560" ht="15.75" customHeight="1">
-      <c r="A560" s="5"/>
+      <c r="A560" s="11"/>
     </row>
     <row r="561" ht="15.75" customHeight="1">
-      <c r="A561" s="5"/>
+      <c r="A561" s="11"/>
     </row>
     <row r="562" ht="15.75" customHeight="1">
-      <c r="A562" s="5"/>
+      <c r="A562" s="11"/>
     </row>
     <row r="563" ht="15.75" customHeight="1">
-      <c r="A563" s="5"/>
+      <c r="A563" s="11"/>
     </row>
     <row r="564" ht="15.75" customHeight="1">
-      <c r="A564" s="5"/>
+      <c r="A564" s="11"/>
     </row>
     <row r="565" ht="15.75" customHeight="1">
-      <c r="A565" s="5"/>
+      <c r="A565" s="11"/>
     </row>
     <row r="566" ht="15.75" customHeight="1">
-      <c r="A566" s="5"/>
+      <c r="A566" s="11"/>
     </row>
     <row r="567" ht="15.75" customHeight="1">
-      <c r="A567" s="5"/>
+      <c r="A567" s="11"/>
     </row>
     <row r="568" ht="15.75" customHeight="1">
-      <c r="A568" s="5"/>
+      <c r="A568" s="11"/>
     </row>
     <row r="569" ht="15.75" customHeight="1">
-      <c r="A569" s="5"/>
+      <c r="A569" s="11"/>
     </row>
     <row r="570" ht="15.75" customHeight="1">
-      <c r="A570" s="5"/>
+      <c r="A570" s="11"/>
     </row>
     <row r="571" ht="15.75" customHeight="1">
-      <c r="A571" s="5"/>
+      <c r="A571" s="11"/>
     </row>
     <row r="572" ht="15.75" customHeight="1">
-      <c r="A572" s="5"/>
+      <c r="A572" s="11"/>
     </row>
     <row r="573" ht="15.75" customHeight="1">
-      <c r="A573" s="5"/>
+      <c r="A573" s="11"/>
     </row>
     <row r="574" ht="15.75" customHeight="1">
-      <c r="A574" s="5"/>
+      <c r="A574" s="11"/>
     </row>
     <row r="575" ht="15.75" customHeight="1">
-      <c r="A575" s="5"/>
+      <c r="A575" s="11"/>
     </row>
     <row r="576" ht="15.75" customHeight="1">
-      <c r="A576" s="5"/>
+      <c r="A576" s="11"/>
     </row>
     <row r="577" ht="15.75" customHeight="1">
-      <c r="A577" s="5"/>
+      <c r="A577" s="11"/>
     </row>
     <row r="578" ht="15.75" customHeight="1">
-      <c r="A578" s="5"/>
+      <c r="A578" s="11"/>
     </row>
     <row r="579" ht="15.75" customHeight="1">
-      <c r="A579" s="5"/>
+      <c r="A579" s="11"/>
     </row>
     <row r="580" ht="15.75" customHeight="1">
-      <c r="A580" s="5"/>
+      <c r="A580" s="11"/>
     </row>
     <row r="581" ht="15.75" customHeight="1">
-      <c r="A581" s="5"/>
+      <c r="A581" s="11"/>
     </row>
     <row r="582" ht="15.75" customHeight="1">
-      <c r="A582" s="5"/>
+      <c r="A582" s="11"/>
     </row>
     <row r="583" ht="15.75" customHeight="1">
-      <c r="A583" s="5"/>
+      <c r="A583" s="11"/>
     </row>
     <row r="584" ht="15.75" customHeight="1">
-      <c r="A584" s="5"/>
+      <c r="A584" s="11"/>
     </row>
     <row r="585" ht="15.75" customHeight="1">
-      <c r="A585" s="5"/>
+      <c r="A585" s="11"/>
     </row>
     <row r="586" ht="15.75" customHeight="1">
-      <c r="A586" s="5"/>
+      <c r="A586" s="11"/>
     </row>
     <row r="587" ht="15.75" customHeight="1">
-      <c r="A587" s="5"/>
+      <c r="A587" s="11"/>
     </row>
     <row r="588" ht="15.75" customHeight="1">
-      <c r="A588" s="5"/>
+      <c r="A588" s="11"/>
     </row>
     <row r="589" ht="15.75" customHeight="1">
-      <c r="A589" s="5"/>
+      <c r="A589" s="11"/>
     </row>
     <row r="590" ht="15.75" customHeight="1">
-      <c r="A590" s="5"/>
+      <c r="A590" s="11"/>
     </row>
     <row r="591" ht="15.75" customHeight="1">
-      <c r="A591" s="5"/>
+      <c r="A591" s="11"/>
     </row>
     <row r="592" ht="15.75" customHeight="1">
-      <c r="A592" s="5"/>
+      <c r="A592" s="11"/>
     </row>
     <row r="593" ht="15.75" customHeight="1">
-      <c r="A593" s="5"/>
+      <c r="A593" s="11"/>
     </row>
     <row r="594" ht="15.75" customHeight="1">
-      <c r="A594" s="5"/>
+      <c r="A594" s="11"/>
     </row>
     <row r="595" ht="15.75" customHeight="1">
-      <c r="A595" s="5"/>
+      <c r="A595" s="11"/>
     </row>
     <row r="596" ht="15.75" customHeight="1">
-      <c r="A596" s="5"/>
+      <c r="A596" s="11"/>
     </row>
     <row r="597" ht="15.75" customHeight="1">
-      <c r="A597" s="5"/>
+      <c r="A597" s="11"/>
     </row>
     <row r="598" ht="15.75" customHeight="1">
-      <c r="A598" s="5"/>
+      <c r="A598" s="11"/>
     </row>
     <row r="599" ht="15.75" customHeight="1">
-      <c r="A599" s="5"/>
+      <c r="A599" s="11"/>
     </row>
     <row r="600" ht="15.75" customHeight="1">
-      <c r="A600" s="5"/>
+      <c r="A600" s="11"/>
     </row>
     <row r="601" ht="15.75" customHeight="1">
-      <c r="A601" s="5"/>
+      <c r="A601" s="11"/>
     </row>
     <row r="602" ht="15.75" customHeight="1">
-      <c r="A602" s="5"/>
+      <c r="A602" s="11"/>
     </row>
     <row r="603" ht="15.75" customHeight="1">
-      <c r="A603" s="5"/>
+      <c r="A603" s="11"/>
     </row>
     <row r="604" ht="15.75" customHeight="1">
-      <c r="A604" s="5"/>
+      <c r="A604" s="11"/>
     </row>
     <row r="605" ht="15.75" customHeight="1">
-      <c r="A605" s="5"/>
+      <c r="A605" s="11"/>
     </row>
     <row r="606" ht="15.75" customHeight="1">
-      <c r="A606" s="5"/>
+      <c r="A606" s="11"/>
     </row>
     <row r="607" ht="15.75" customHeight="1">
-      <c r="A607" s="5"/>
+      <c r="A607" s="11"/>
     </row>
     <row r="608" ht="15.75" customHeight="1">
-      <c r="A608" s="5"/>
+      <c r="A608" s="11"/>
     </row>
     <row r="609" ht="15.75" customHeight="1">
-      <c r="A609" s="5"/>
+      <c r="A609" s="11"/>
     </row>
     <row r="610" ht="15.75" customHeight="1">
-      <c r="A610" s="5"/>
+      <c r="A610" s="11"/>
     </row>
     <row r="611" ht="15.75" customHeight="1">
-      <c r="A611" s="5"/>
+      <c r="A611" s="11"/>
     </row>
     <row r="612" ht="15.75" customHeight="1">
-      <c r="A612" s="5"/>
+      <c r="A612" s="11"/>
     </row>
     <row r="613" ht="15.75" customHeight="1">
-      <c r="A613" s="5"/>
+      <c r="A613" s="11"/>
     </row>
     <row r="614" ht="15.75" customHeight="1">
-      <c r="A614" s="5"/>
+      <c r="A614" s="11"/>
     </row>
     <row r="615" ht="15.75" customHeight="1">
-      <c r="A615" s="5"/>
+      <c r="A615" s="11"/>
     </row>
     <row r="616" ht="15.75" customHeight="1">
-      <c r="A616" s="5"/>
+      <c r="A616" s="11"/>
     </row>
     <row r="617" ht="15.75" customHeight="1">
-      <c r="A617" s="5"/>
+      <c r="A617" s="11"/>
     </row>
     <row r="618" ht="15.75" customHeight="1">
-      <c r="A618" s="5"/>
+      <c r="A618" s="11"/>
     </row>
     <row r="619" ht="15.75" customHeight="1">
-      <c r="A619" s="5"/>
+      <c r="A619" s="11"/>
     </row>
     <row r="620" ht="15.75" customHeight="1">
-      <c r="A620" s="5"/>
+      <c r="A620" s="11"/>
     </row>
     <row r="621" ht="15.75" customHeight="1">
-      <c r="A621" s="5"/>
+      <c r="A621" s="11"/>
     </row>
     <row r="622" ht="15.75" customHeight="1">
-      <c r="A622" s="5"/>
+      <c r="A622" s="11"/>
     </row>
     <row r="623" ht="15.75" customHeight="1">
-      <c r="A623" s="5"/>
+      <c r="A623" s="11"/>
     </row>
     <row r="624" ht="15.75" customHeight="1">
-      <c r="A624" s="5"/>
+      <c r="A624" s="11"/>
     </row>
     <row r="625" ht="15.75" customHeight="1">
-      <c r="A625" s="5"/>
+      <c r="A625" s="11"/>
     </row>
     <row r="626" ht="15.75" customHeight="1">
-      <c r="A626" s="5"/>
+      <c r="A626" s="11"/>
     </row>
     <row r="627" ht="15.75" customHeight="1">
-      <c r="A627" s="5"/>
+      <c r="A627" s="11"/>
     </row>
     <row r="628" ht="15.75" customHeight="1">
-      <c r="A628" s="5"/>
+      <c r="A628" s="11"/>
     </row>
     <row r="629" ht="15.75" customHeight="1">
-      <c r="A629" s="5"/>
+      <c r="A629" s="11"/>
     </row>
     <row r="630" ht="15.75" customHeight="1">
-      <c r="A630" s="5"/>
+      <c r="A630" s="11"/>
     </row>
     <row r="631" ht="15.75" customHeight="1">
-      <c r="A631" s="5"/>
+      <c r="A631" s="11"/>
     </row>
     <row r="632" ht="15.75" customHeight="1">
-      <c r="A632" s="5"/>
+      <c r="A632" s="11"/>
     </row>
     <row r="633" ht="15.75" customHeight="1">
-      <c r="A633" s="5"/>
+      <c r="A633" s="11"/>
     </row>
     <row r="634" ht="15.75" customHeight="1">
-      <c r="A634" s="5"/>
+      <c r="A634" s="11"/>
     </row>
     <row r="635" ht="15.75" customHeight="1">
-      <c r="A635" s="5"/>
+      <c r="A635" s="11"/>
     </row>
     <row r="636" ht="15.75" customHeight="1">
-      <c r="A636" s="5"/>
+      <c r="A636" s="11"/>
     </row>
     <row r="637" ht="15.75" customHeight="1">
-      <c r="A637" s="5"/>
+      <c r="A637" s="11"/>
     </row>
     <row r="638" ht="15.75" customHeight="1">
-      <c r="A638" s="5"/>
+      <c r="A638" s="11"/>
     </row>
     <row r="639" ht="15.75" customHeight="1">
-      <c r="A639" s="5"/>
+      <c r="A639" s="11"/>
     </row>
     <row r="640" ht="15.75" customHeight="1">
-      <c r="A640" s="5"/>
+      <c r="A640" s="11"/>
     </row>
     <row r="641" ht="15.75" customHeight="1">
-      <c r="A641" s="5"/>
+      <c r="A641" s="11"/>
     </row>
     <row r="642" ht="15.75" customHeight="1">
-      <c r="A642" s="5"/>
+      <c r="A642" s="11"/>
     </row>
     <row r="643" ht="15.75" customHeight="1">
-      <c r="A643" s="5"/>
+      <c r="A643" s="11"/>
     </row>
     <row r="644" ht="15.75" customHeight="1">
-      <c r="A644" s="5"/>
+      <c r="A644" s="11"/>
     </row>
     <row r="645" ht="15.75" customHeight="1">
-      <c r="A645" s="5"/>
+      <c r="A645" s="11"/>
     </row>
     <row r="646" ht="15.75" customHeight="1">
-      <c r="A646" s="5"/>
+      <c r="A646" s="11"/>
     </row>
     <row r="647" ht="15.75" customHeight="1">
-      <c r="A647" s="5"/>
+      <c r="A647" s="11"/>
     </row>
     <row r="648" ht="15.75" customHeight="1">
-      <c r="A648" s="5"/>
+      <c r="A648" s="11"/>
     </row>
     <row r="649" ht="15.75" customHeight="1">
-      <c r="A649" s="5"/>
+      <c r="A649" s="11"/>
     </row>
     <row r="650" ht="15.75" customHeight="1">
-      <c r="A650" s="5"/>
+      <c r="A650" s="11"/>
     </row>
     <row r="651" ht="15.75" customHeight="1">
-      <c r="A651" s="5"/>
+      <c r="A651" s="11"/>
     </row>
     <row r="652" ht="15.75" customHeight="1">
-      <c r="A652" s="5"/>
+      <c r="A652" s="11"/>
     </row>
     <row r="653" ht="15.75" customHeight="1">
-      <c r="A653" s="5"/>
+      <c r="A653" s="11"/>
     </row>
     <row r="654" ht="15.75" customHeight="1">
-      <c r="A654" s="5"/>
+      <c r="A654" s="11"/>
     </row>
     <row r="655" ht="15.75" customHeight="1">
-      <c r="A655" s="5"/>
+      <c r="A655" s="11"/>
     </row>
     <row r="656" ht="15.75" customHeight="1">
-      <c r="A656" s="5"/>
+      <c r="A656" s="11"/>
     </row>
     <row r="657" ht="15.75" customHeight="1">
-      <c r="A657" s="5"/>
+      <c r="A657" s="11"/>
     </row>
     <row r="658" ht="15.75" customHeight="1">
-      <c r="A658" s="5"/>
+      <c r="A658" s="11"/>
     </row>
     <row r="659" ht="15.75" customHeight="1">
-      <c r="A659" s="5"/>
+      <c r="A659" s="11"/>
     </row>
     <row r="660" ht="15.75" customHeight="1">
-      <c r="A660" s="5"/>
+      <c r="A660" s="11"/>
     </row>
     <row r="661" ht="15.75" customHeight="1">
-      <c r="A661" s="5"/>
+      <c r="A661" s="11"/>
     </row>
     <row r="662" ht="15.75" customHeight="1">
-      <c r="A662" s="5"/>
+      <c r="A662" s="11"/>
     </row>
     <row r="663" ht="15.75" customHeight="1">
-      <c r="A663" s="5"/>
+      <c r="A663" s="11"/>
     </row>
     <row r="664" ht="15.75" customHeight="1">
-      <c r="A664" s="5"/>
+      <c r="A664" s="11"/>
     </row>
     <row r="665" ht="15.75" customHeight="1">
-      <c r="A665" s="5"/>
+      <c r="A665" s="11"/>
     </row>
     <row r="666" ht="15.75" customHeight="1">
-      <c r="A666" s="5"/>
+      <c r="A666" s="11"/>
     </row>
     <row r="667" ht="15.75" customHeight="1">
-      <c r="A667" s="5"/>
+      <c r="A667" s="11"/>
     </row>
     <row r="668" ht="15.75" customHeight="1">
-      <c r="A668" s="5"/>
+      <c r="A668" s="11"/>
     </row>
     <row r="669" ht="15.75" customHeight="1">
-      <c r="A669" s="5"/>
+      <c r="A669" s="11"/>
     </row>
     <row r="670" ht="15.75" customHeight="1">
-      <c r="A670" s="5"/>
+      <c r="A670" s="11"/>
     </row>
     <row r="671" ht="15.75" customHeight="1">
-      <c r="A671" s="5"/>
+      <c r="A671" s="11"/>
     </row>
     <row r="672" ht="15.75" customHeight="1">
-      <c r="A672" s="5"/>
+      <c r="A672" s="11"/>
     </row>
     <row r="673" ht="15.75" customHeight="1">
-      <c r="A673" s="5"/>
+      <c r="A673" s="11"/>
     </row>
     <row r="674" ht="15.75" customHeight="1">
-      <c r="A674" s="5"/>
+      <c r="A674" s="11"/>
     </row>
     <row r="675" ht="15.75" customHeight="1">
-      <c r="A675" s="5"/>
+      <c r="A675" s="11"/>
     </row>
     <row r="676" ht="15.75" customHeight="1">
-      <c r="A676" s="5"/>
+      <c r="A676" s="11"/>
     </row>
     <row r="677" ht="15.75" customHeight="1">
-      <c r="A677" s="5"/>
+      <c r="A677" s="11"/>
     </row>
     <row r="678" ht="15.75" customHeight="1">
-      <c r="A678" s="5"/>
+      <c r="A678" s="11"/>
     </row>
     <row r="679" ht="15.75" customHeight="1">
-      <c r="A679" s="5"/>
+      <c r="A679" s="11"/>
     </row>
     <row r="680" ht="15.75" customHeight="1">
-      <c r="A680" s="5"/>
+      <c r="A680" s="11"/>
     </row>
     <row r="681" ht="15.75" customHeight="1">
-      <c r="A681" s="5"/>
+      <c r="A681" s="11"/>
     </row>
     <row r="682" ht="15.75" customHeight="1">
-      <c r="A682" s="5"/>
+      <c r="A682" s="11"/>
     </row>
     <row r="683" ht="15.75" customHeight="1">
-      <c r="A683" s="5"/>
+      <c r="A683" s="11"/>
     </row>
     <row r="684" ht="15.75" customHeight="1">
-      <c r="A684" s="5"/>
+      <c r="A684" s="11"/>
     </row>
     <row r="685" ht="15.75" customHeight="1">
-      <c r="A685" s="5"/>
+      <c r="A685" s="11"/>
     </row>
     <row r="686" ht="15.75" customHeight="1">
-      <c r="A686" s="5"/>
+      <c r="A686" s="11"/>
     </row>
     <row r="687" ht="15.75" customHeight="1">
-      <c r="A687" s="5"/>
+      <c r="A687" s="11"/>
     </row>
     <row r="688" ht="15.75" customHeight="1">
-      <c r="A688" s="5"/>
+      <c r="A688" s="11"/>
     </row>
     <row r="689" ht="15.75" customHeight="1">
-      <c r="A689" s="5"/>
+      <c r="A689" s="11"/>
     </row>
     <row r="690" ht="15.75" customHeight="1">
-      <c r="A690" s="5"/>
+      <c r="A690" s="11"/>
     </row>
     <row r="691" ht="15.75" customHeight="1">
-      <c r="A691" s="5"/>
+      <c r="A691" s="11"/>
     </row>
     <row r="692" ht="15.75" customHeight="1">
-      <c r="A692" s="5"/>
+      <c r="A692" s="11"/>
     </row>
     <row r="693" ht="15.75" customHeight="1">
-      <c r="A693" s="5"/>
+      <c r="A693" s="11"/>
     </row>
     <row r="694" ht="15.75" customHeight="1">
-      <c r="A694" s="5"/>
+      <c r="A694" s="11"/>
     </row>
     <row r="695" ht="15.75" customHeight="1">
-      <c r="A695" s="5"/>
+      <c r="A695" s="11"/>
     </row>
     <row r="696" ht="15.75" customHeight="1">
-      <c r="A696" s="5"/>
+      <c r="A696" s="11"/>
     </row>
     <row r="697" ht="15.75" customHeight="1">
-      <c r="A697" s="5"/>
+      <c r="A697" s="11"/>
     </row>
     <row r="698" ht="15.75" customHeight="1">
-      <c r="A698" s="5"/>
+      <c r="A698" s="11"/>
     </row>
     <row r="699" ht="15.75" customHeight="1">
-      <c r="A699" s="5"/>
+      <c r="A699" s="11"/>
     </row>
     <row r="700" ht="15.75" customHeight="1">
-      <c r="A700" s="5"/>
+      <c r="A700" s="11"/>
     </row>
     <row r="701" ht="15.75" customHeight="1">
-      <c r="A701" s="5"/>
+      <c r="A701" s="11"/>
     </row>
     <row r="702" ht="15.75" customHeight="1">
-      <c r="A702" s="5"/>
+      <c r="A702" s="11"/>
     </row>
     <row r="703" ht="15.75" customHeight="1">
-      <c r="A703" s="5"/>
+      <c r="A703" s="11"/>
     </row>
     <row r="704" ht="15.75" customHeight="1">
-      <c r="A704" s="5"/>
+      <c r="A704" s="11"/>
     </row>
     <row r="705" ht="15.75" customHeight="1">
-      <c r="A705" s="5"/>
+      <c r="A705" s="11"/>
     </row>
     <row r="706" ht="15.75" customHeight="1">
-      <c r="A706" s="5"/>
+      <c r="A706" s="11"/>
     </row>
     <row r="707" ht="15.75" customHeight="1">
-      <c r="A707" s="5"/>
+      <c r="A707" s="11"/>
     </row>
     <row r="708" ht="15.75" customHeight="1">
-      <c r="A708" s="5"/>
+      <c r="A708" s="11"/>
     </row>
     <row r="709" ht="15.75" customHeight="1">
-      <c r="A709" s="5"/>
+      <c r="A709" s="11"/>
     </row>
     <row r="710" ht="15.75" customHeight="1">
-      <c r="A710" s="5"/>
+      <c r="A710" s="11"/>
     </row>
     <row r="711" ht="15.75" customHeight="1">
-      <c r="A711" s="5"/>
+      <c r="A711" s="11"/>
     </row>
     <row r="712" ht="15.75" customHeight="1">
-      <c r="A712" s="5"/>
+      <c r="A712" s="11"/>
     </row>
     <row r="713" ht="15.75" customHeight="1">
-      <c r="A713" s="5"/>
+      <c r="A713" s="11"/>
     </row>
     <row r="714" ht="15.75" customHeight="1">
-      <c r="A714" s="5"/>
+      <c r="A714" s="11"/>
     </row>
     <row r="715" ht="15.75" customHeight="1">
-      <c r="A715" s="5"/>
+      <c r="A715" s="11"/>
     </row>
     <row r="716" ht="15.75" customHeight="1">
-      <c r="A716" s="5"/>
+      <c r="A716" s="11"/>
     </row>
     <row r="717" ht="15.75" customHeight="1">
-      <c r="A717" s="5"/>
+      <c r="A717" s="11"/>
     </row>
     <row r="718" ht="15.75" customHeight="1">
-      <c r="A718" s="5"/>
+      <c r="A718" s="11"/>
     </row>
     <row r="719" ht="15.75" customHeight="1">
-      <c r="A719" s="5"/>
+      <c r="A719" s="11"/>
     </row>
     <row r="720" ht="15.75" customHeight="1">
-      <c r="A720" s="5"/>
+      <c r="A720" s="11"/>
     </row>
     <row r="721" ht="15.75" customHeight="1">
-      <c r="A721" s="5"/>
+      <c r="A721" s="11"/>
     </row>
     <row r="722" ht="15.75" customHeight="1">
-      <c r="A722" s="5"/>
+      <c r="A722" s="11"/>
     </row>
     <row r="723" ht="15.75" customHeight="1">
-      <c r="A723" s="5"/>
+      <c r="A723" s="11"/>
     </row>
     <row r="724" ht="15.75" customHeight="1">
-      <c r="A724" s="5"/>
+      <c r="A724" s="11"/>
     </row>
     <row r="725" ht="15.75" customHeight="1">
-      <c r="A725" s="5"/>
+      <c r="A725" s="11"/>
     </row>
     <row r="726" ht="15.75" customHeight="1">
-      <c r="A726" s="5"/>
+      <c r="A726" s="11"/>
     </row>
     <row r="727" ht="15.75" customHeight="1">
-      <c r="A727" s="5"/>
+      <c r="A727" s="11"/>
     </row>
     <row r="728" ht="15.75" customHeight="1">
-      <c r="A728" s="5"/>
+      <c r="A728" s="11"/>
     </row>
     <row r="729" ht="15.75" customHeight="1">
-      <c r="A729" s="5"/>
+      <c r="A729" s="11"/>
     </row>
     <row r="730" ht="15.75" customHeight="1">
-      <c r="A730" s="5"/>
+      <c r="A730" s="11"/>
     </row>
     <row r="731" ht="15.75" customHeight="1">
-      <c r="A731" s="5"/>
+      <c r="A731" s="11"/>
     </row>
     <row r="732" ht="15.75" customHeight="1">
-      <c r="A732" s="5"/>
+      <c r="A732" s="11"/>
     </row>
     <row r="733" ht="15.75" customHeight="1">
-      <c r="A733" s="5"/>
+      <c r="A733" s="11"/>
     </row>
     <row r="734" ht="15.75" customHeight="1">
-      <c r="A734" s="5"/>
+      <c r="A734" s="11"/>
     </row>
     <row r="735" ht="15.75" customHeight="1">
-      <c r="A735" s="5"/>
+      <c r="A735" s="11"/>
     </row>
     <row r="736" ht="15.75" customHeight="1">
-      <c r="A736" s="5"/>
+      <c r="A736" s="11"/>
     </row>
     <row r="737" ht="15.75" customHeight="1">
-      <c r="A737" s="5"/>
+      <c r="A737" s="11"/>
     </row>
     <row r="738" ht="15.75" customHeight="1">
-      <c r="A738" s="5"/>
+      <c r="A738" s="11"/>
     </row>
     <row r="739" ht="15.75" customHeight="1">
-      <c r="A739" s="5"/>
+      <c r="A739" s="11"/>
     </row>
     <row r="740" ht="15.75" customHeight="1">
-      <c r="A740" s="5"/>
+      <c r="A740" s="11"/>
     </row>
     <row r="741" ht="15.75" customHeight="1">
-      <c r="A741" s="5"/>
+      <c r="A741" s="11"/>
     </row>
     <row r="742" ht="15.75" customHeight="1">
-      <c r="A742" s="5"/>
+      <c r="A742" s="11"/>
     </row>
     <row r="743" ht="15.75" customHeight="1">
-      <c r="A743" s="5"/>
+      <c r="A743" s="11"/>
     </row>
     <row r="744" ht="15.75" customHeight="1">
-      <c r="A744" s="5"/>
+      <c r="A744" s="11"/>
     </row>
     <row r="745" ht="15.75" customHeight="1">
-      <c r="A745" s="5"/>
+      <c r="A745" s="11"/>
     </row>
     <row r="746" ht="15.75" customHeight="1">
-      <c r="A746" s="5"/>
+      <c r="A746" s="11"/>
     </row>
     <row r="747" ht="15.75" customHeight="1">
-      <c r="A747" s="5"/>
+      <c r="A747" s="11"/>
     </row>
     <row r="748" ht="15.75" customHeight="1">
-      <c r="A748" s="5"/>
+      <c r="A748" s="11"/>
     </row>
     <row r="749" ht="15.75" customHeight="1">
-      <c r="A749" s="5"/>
+      <c r="A749" s="11"/>
     </row>
     <row r="750" ht="15.75" customHeight="1">
-      <c r="A750" s="5"/>
+      <c r="A750" s="11"/>
     </row>
     <row r="751" ht="15.75" customHeight="1">
-      <c r="A751" s="5"/>
+      <c r="A751" s="11"/>
     </row>
     <row r="752" ht="15.75" customHeight="1">
-      <c r="A752" s="5"/>
+      <c r="A752" s="11"/>
     </row>
     <row r="753" ht="15.75" customHeight="1">
-      <c r="A753" s="5"/>
+      <c r="A753" s="11"/>
     </row>
     <row r="754" ht="15.75" customHeight="1">
-      <c r="A754" s="5"/>
+      <c r="A754" s="11"/>
     </row>
     <row r="755" ht="15.75" customHeight="1">
-      <c r="A755" s="5"/>
+      <c r="A755" s="11"/>
     </row>
     <row r="756" ht="15.75" customHeight="1">
-      <c r="A756" s="5"/>
+      <c r="A756" s="11"/>
     </row>
     <row r="757" ht="15.75" customHeight="1">
-      <c r="A757" s="5"/>
+      <c r="A757" s="11"/>
     </row>
     <row r="758" ht="15.75" customHeight="1">
-      <c r="A758" s="5"/>
+      <c r="A758" s="11"/>
     </row>
     <row r="759" ht="15.75" customHeight="1">
-      <c r="A759" s="5"/>
+      <c r="A759" s="11"/>
     </row>
     <row r="760" ht="15.75" customHeight="1">
-      <c r="A760" s="5"/>
+      <c r="A760" s="11"/>
     </row>
     <row r="761" ht="15.75" customHeight="1">
-      <c r="A761" s="5"/>
+      <c r="A761" s="11"/>
     </row>
     <row r="762" ht="15.75" customHeight="1">
-      <c r="A762" s="5"/>
+      <c r="A762" s="11"/>
     </row>
     <row r="763" ht="15.75" customHeight="1">
-      <c r="A763" s="5"/>
+      <c r="A763" s="11"/>
     </row>
     <row r="764" ht="15.75" customHeight="1">
-      <c r="A764" s="5"/>
+      <c r="A764" s="11"/>
     </row>
     <row r="765" ht="15.75" customHeight="1">
-      <c r="A765" s="5"/>
+      <c r="A765" s="11"/>
     </row>
     <row r="766" ht="15.75" customHeight="1">
-      <c r="A766" s="5"/>
+      <c r="A766" s="11"/>
     </row>
     <row r="767" ht="15.75" customHeight="1">
-      <c r="A767" s="5"/>
+      <c r="A767" s="11"/>
     </row>
     <row r="768" ht="15.75" customHeight="1">
-      <c r="A768" s="5"/>
+      <c r="A768" s="11"/>
     </row>
     <row r="769" ht="15.75" customHeight="1">
-      <c r="A769" s="5"/>
+      <c r="A769" s="11"/>
     </row>
     <row r="770" ht="15.75" customHeight="1">
-      <c r="A770" s="5"/>
+      <c r="A770" s="11"/>
     </row>
     <row r="771" ht="15.75" customHeight="1">
-      <c r="A771" s="5"/>
+      <c r="A771" s="11"/>
     </row>
     <row r="772" ht="15.75" customHeight="1">
-      <c r="A772" s="5"/>
+      <c r="A772" s="11"/>
     </row>
     <row r="773" ht="15.75" customHeight="1">
-      <c r="A773" s="5"/>
+      <c r="A773" s="11"/>
     </row>
     <row r="774" ht="15.75" customHeight="1">
-      <c r="A774" s="5"/>
+      <c r="A774" s="11"/>
     </row>
     <row r="775" ht="15.75" customHeight="1">
-      <c r="A775" s="5"/>
+      <c r="A775" s="11"/>
     </row>
     <row r="776" ht="15.75" customHeight="1">
-      <c r="A776" s="5"/>
+      <c r="A776" s="11"/>
     </row>
     <row r="777" ht="15.75" customHeight="1">
-      <c r="A777" s="5"/>
+      <c r="A777" s="11"/>
     </row>
     <row r="778" ht="15.75" customHeight="1">
-      <c r="A778" s="5"/>
+      <c r="A778" s="11"/>
     </row>
     <row r="779" ht="15.75" customHeight="1">
-      <c r="A779" s="5"/>
+      <c r="A779" s="11"/>
     </row>
     <row r="780" ht="15.75" customHeight="1">
-      <c r="A780" s="5"/>
+      <c r="A780" s="11"/>
     </row>
     <row r="781" ht="15.75" customHeight="1">
-      <c r="A781" s="5"/>
+      <c r="A781" s="11"/>
     </row>
     <row r="782" ht="15.75" customHeight="1">
-      <c r="A782" s="5"/>
+      <c r="A782" s="11"/>
     </row>
     <row r="783" ht="15.75" customHeight="1">
-      <c r="A783" s="5"/>
+      <c r="A783" s="11"/>
     </row>
     <row r="784" ht="15.75" customHeight="1">
-      <c r="A784" s="5"/>
+      <c r="A784" s="11"/>
     </row>
     <row r="785" ht="15.75" customHeight="1">
-      <c r="A785" s="5"/>
+      <c r="A785" s="11"/>
     </row>
     <row r="786" ht="15.75" customHeight="1">
-      <c r="A786" s="5"/>
+      <c r="A786" s="11"/>
     </row>
     <row r="787" ht="15.75" customHeight="1">
-      <c r="A787" s="5"/>
+      <c r="A787" s="11"/>
     </row>
     <row r="788" ht="15.75" customHeight="1">
-      <c r="A788" s="5"/>
+      <c r="A788" s="11"/>
     </row>
     <row r="789" ht="15.75" customHeight="1">
-      <c r="A789" s="5"/>
+      <c r="A789" s="11"/>
     </row>
     <row r="790" ht="15.75" customHeight="1">
-      <c r="A790" s="5"/>
+      <c r="A790" s="11"/>
     </row>
     <row r="791" ht="15.75" customHeight="1">
-      <c r="A791" s="5"/>
+      <c r="A791" s="11"/>
     </row>
     <row r="792" ht="15.75" customHeight="1">
-      <c r="A792" s="5"/>
+      <c r="A792" s="11"/>
     </row>
     <row r="793" ht="15.75" customHeight="1">
-      <c r="A793" s="5"/>
+      <c r="A793" s="11"/>
     </row>
     <row r="794" ht="15.75" customHeight="1">
-      <c r="A794" s="5"/>
+      <c r="A794" s="11"/>
     </row>
     <row r="795" ht="15.75" customHeight="1">
-      <c r="A795" s="5"/>
+      <c r="A795" s="11"/>
     </row>
     <row r="796" ht="15.75" customHeight="1">
-      <c r="A796" s="5"/>
+      <c r="A796" s="11"/>
     </row>
     <row r="797" ht="15.75" customHeight="1">
-      <c r="A797" s="5"/>
+      <c r="A797" s="11"/>
     </row>
     <row r="798" ht="15.75" customHeight="1">
-      <c r="A798" s="5"/>
+      <c r="A798" s="11"/>
     </row>
     <row r="799" ht="15.75" customHeight="1">
-      <c r="A799" s="5"/>
+      <c r="A799" s="11"/>
     </row>
     <row r="800" ht="15.75" customHeight="1">
-      <c r="A800" s="5"/>
+      <c r="A800" s="11"/>
     </row>
     <row r="801" ht="15.75" customHeight="1">
-      <c r="A801" s="5"/>
+      <c r="A801" s="11"/>
     </row>
     <row r="802" ht="15.75" customHeight="1">
-      <c r="A802" s="5"/>
+      <c r="A802" s="11"/>
     </row>
     <row r="803" ht="15.75" customHeight="1">
-      <c r="A803" s="5"/>
+      <c r="A803" s="11"/>
     </row>
     <row r="804" ht="15.75" customHeight="1">
-      <c r="A804" s="5"/>
+      <c r="A804" s="11"/>
     </row>
     <row r="805" ht="15.75" customHeight="1">
-      <c r="A805" s="5"/>
+      <c r="A805" s="11"/>
     </row>
     <row r="806" ht="15.75" customHeight="1">
-      <c r="A806" s="5"/>
+      <c r="A806" s="11"/>
     </row>
     <row r="807" ht="15.75" customHeight="1">
-      <c r="A807" s="5"/>
+      <c r="A807" s="11"/>
     </row>
     <row r="808" ht="15.75" customHeight="1">
-      <c r="A808" s="5"/>
+      <c r="A808" s="11"/>
     </row>
     <row r="809" ht="15.75" customHeight="1">
-      <c r="A809" s="5"/>
+      <c r="A809" s="11"/>
     </row>
     <row r="810" ht="15.75" customHeight="1">
-      <c r="A810" s="5"/>
+      <c r="A810" s="11"/>
     </row>
     <row r="811" ht="15.75" customHeight="1">
-      <c r="A811" s="5"/>
+      <c r="A811" s="11"/>
     </row>
     <row r="812" ht="15.75" customHeight="1">
-      <c r="A812" s="5"/>
+      <c r="A812" s="11"/>
     </row>
     <row r="813" ht="15.75" customHeight="1">
-      <c r="A813" s="5"/>
+      <c r="A813" s="11"/>
     </row>
     <row r="814" ht="15.75" customHeight="1">
-      <c r="A814" s="5"/>
+      <c r="A814" s="11"/>
     </row>
     <row r="815" ht="15.75" customHeight="1">
-      <c r="A815" s="5"/>
+      <c r="A815" s="11"/>
     </row>
     <row r="816" ht="15.75" customHeight="1">
-      <c r="A816" s="5"/>
+      <c r="A816" s="11"/>
     </row>
     <row r="817" ht="15.75" customHeight="1">
-      <c r="A817" s="5"/>
+      <c r="A817" s="11"/>
     </row>
     <row r="818" ht="15.75" customHeight="1">
-      <c r="A818" s="5"/>
+      <c r="A818" s="11"/>
     </row>
     <row r="819" ht="15.75" customHeight="1">
-      <c r="A819" s="5"/>
+      <c r="A819" s="11"/>
     </row>
     <row r="820" ht="15.75" customHeight="1">
-      <c r="A820" s="5"/>
+      <c r="A820" s="11"/>
     </row>
     <row r="821" ht="15.75" customHeight="1">
-      <c r="A821" s="5"/>
+      <c r="A821" s="11"/>
     </row>
     <row r="822" ht="15.75" customHeight="1">
-      <c r="A822" s="5"/>
+      <c r="A822" s="11"/>
     </row>
     <row r="823" ht="15.75" customHeight="1">
-      <c r="A823" s="5"/>
+      <c r="A823" s="11"/>
     </row>
     <row r="824" ht="15.75" customHeight="1">
-      <c r="A824" s="5"/>
+      <c r="A824" s="11"/>
     </row>
     <row r="825" ht="15.75" customHeight="1">
-      <c r="A825" s="5"/>
+      <c r="A825" s="11"/>
     </row>
     <row r="826" ht="15.75" customHeight="1">
-      <c r="A826" s="5"/>
+      <c r="A826" s="11"/>
     </row>
     <row r="827" ht="15.75" customHeight="1">
-      <c r="A827" s="5"/>
+      <c r="A827" s="11"/>
     </row>
     <row r="828" ht="15.75" customHeight="1">
-      <c r="A828" s="5"/>
+      <c r="A828" s="11"/>
     </row>
     <row r="829" ht="15.75" customHeight="1">
-      <c r="A829" s="5"/>
+      <c r="A829" s="11"/>
     </row>
     <row r="830" ht="15.75" customHeight="1">
-      <c r="A830" s="5"/>
+      <c r="A830" s="11"/>
     </row>
     <row r="831" ht="15.75" customHeight="1">
-      <c r="A831" s="5"/>
+      <c r="A831" s="11"/>
     </row>
     <row r="832" ht="15.75" customHeight="1">
-      <c r="A832" s="5"/>
+      <c r="A832" s="11"/>
     </row>
     <row r="833" ht="15.75" customHeight="1">
-      <c r="A833" s="5"/>
+      <c r="A833" s="11"/>
     </row>
     <row r="834" ht="15.75" customHeight="1">
-      <c r="A834" s="5"/>
+      <c r="A834" s="11"/>
     </row>
     <row r="835" ht="15.75" customHeight="1">
-      <c r="A835" s="5"/>
+      <c r="A835" s="11"/>
     </row>
     <row r="836" ht="15.75" customHeight="1">
-      <c r="A836" s="5"/>
+      <c r="A836" s="11"/>
     </row>
     <row r="837" ht="15.75" customHeight="1">
-      <c r="A837" s="5"/>
+      <c r="A837" s="11"/>
     </row>
     <row r="838" ht="15.75" customHeight="1">
-      <c r="A838" s="5"/>
+      <c r="A838" s="11"/>
     </row>
     <row r="839" ht="15.75" customHeight="1">
-      <c r="A839" s="5"/>
+      <c r="A839" s="11"/>
     </row>
     <row r="840" ht="15.75" customHeight="1">
-      <c r="A840" s="5"/>
+      <c r="A840" s="11"/>
     </row>
     <row r="841" ht="15.75" customHeight="1">
-      <c r="A841" s="5"/>
+      <c r="A841" s="11"/>
     </row>
     <row r="842" ht="15.75" customHeight="1">
-      <c r="A842" s="5"/>
+      <c r="A842" s="11"/>
     </row>
     <row r="843" ht="15.75" customHeight="1">
-      <c r="A843" s="5"/>
+      <c r="A843" s="11"/>
     </row>
     <row r="844" ht="15.75" customHeight="1">
-      <c r="A844" s="5"/>
+      <c r="A844" s="11"/>
     </row>
     <row r="845" ht="15.75" customHeight="1">
-      <c r="A845" s="5"/>
+      <c r="A845" s="11"/>
     </row>
     <row r="846" ht="15.75" customHeight="1">
-      <c r="A846" s="5"/>
+      <c r="A846" s="11"/>
     </row>
     <row r="847" ht="15.75" customHeight="1">
-      <c r="A847" s="5"/>
+      <c r="A847" s="11"/>
     </row>
     <row r="848" ht="15.75" customHeight="1">
-      <c r="A848" s="5"/>
+      <c r="A848" s="11"/>
     </row>
     <row r="849" ht="15.75" customHeight="1">
-      <c r="A849" s="5"/>
+      <c r="A849" s="11"/>
     </row>
     <row r="850" ht="15.75" customHeight="1">
-      <c r="A850" s="5"/>
+      <c r="A850" s="11"/>
     </row>
     <row r="851" ht="15.75" customHeight="1">
-      <c r="A851" s="5"/>
+      <c r="A851" s="11"/>
     </row>
     <row r="852" ht="15.75" customHeight="1">
-      <c r="A852" s="5"/>
+      <c r="A852" s="11"/>
     </row>
     <row r="853" ht="15.75" customHeight="1">
-      <c r="A853" s="5"/>
+      <c r="A853" s="11"/>
     </row>
     <row r="854" ht="15.75" customHeight="1">
-      <c r="A854" s="5"/>
+      <c r="A854" s="11"/>
     </row>
     <row r="855" ht="15.75" customHeight="1">
-      <c r="A855" s="5"/>
+      <c r="A855" s="11"/>
     </row>
     <row r="856" ht="15.75" customHeight="1">
-      <c r="A856" s="5"/>
+      <c r="A856" s="11"/>
     </row>
     <row r="857" ht="15.75" customHeight="1">
-      <c r="A857" s="5"/>
+      <c r="A857" s="11"/>
     </row>
     <row r="858" ht="15.75" customHeight="1">
-      <c r="A858" s="5"/>
+      <c r="A858" s="11"/>
     </row>
     <row r="859" ht="15.75" customHeight="1">
-      <c r="A859" s="5"/>
+      <c r="A859" s="11"/>
     </row>
     <row r="860" ht="15.75" customHeight="1">
-      <c r="A860" s="5"/>
+      <c r="A860" s="11"/>
     </row>
     <row r="861" ht="15.75" customHeight="1">
-      <c r="A861" s="5"/>
+      <c r="A861" s="11"/>
     </row>
     <row r="862" ht="15.75" customHeight="1">
-      <c r="A862" s="5"/>
+      <c r="A862" s="11"/>
     </row>
     <row r="863" ht="15.75" customHeight="1">
-      <c r="A863" s="5"/>
+      <c r="A863" s="11"/>
     </row>
     <row r="864" ht="15.75" customHeight="1">
-      <c r="A864" s="5"/>
+      <c r="A864" s="11"/>
     </row>
     <row r="865" ht="15.75" customHeight="1">
-      <c r="A865" s="5"/>
+      <c r="A865" s="11"/>
     </row>
     <row r="866" ht="15.75" customHeight="1">
-      <c r="A866" s="5"/>
+      <c r="A866" s="11"/>
     </row>
     <row r="867" ht="15.75" customHeight="1">
-      <c r="A867" s="5"/>
+      <c r="A867" s="11"/>
     </row>
     <row r="868" ht="15.75" customHeight="1">
-      <c r="A868" s="5"/>
+      <c r="A868" s="11"/>
     </row>
     <row r="869" ht="15.75" customHeight="1">
-      <c r="A869" s="5"/>
+      <c r="A869" s="11"/>
     </row>
     <row r="870" ht="15.75" customHeight="1">
-      <c r="A870" s="5"/>
+      <c r="A870" s="11"/>
     </row>
     <row r="871" ht="15.75" customHeight="1">
-      <c r="A871" s="5"/>
+      <c r="A871" s="11"/>
     </row>
     <row r="872" ht="15.75" customHeight="1">
-      <c r="A872" s="5"/>
+      <c r="A872" s="11"/>
     </row>
     <row r="873" ht="15.75" customHeight="1">
-      <c r="A873" s="5"/>
+      <c r="A873" s="11"/>
     </row>
     <row r="874" ht="15.75" customHeight="1">
-      <c r="A874" s="5"/>
+      <c r="A874" s="11"/>
     </row>
     <row r="875" ht="15.75" customHeight="1">
-      <c r="A875" s="5"/>
+      <c r="A875" s="11"/>
     </row>
     <row r="876" ht="15.75" customHeight="1">
-      <c r="A876" s="5"/>
+      <c r="A876" s="11"/>
     </row>
     <row r="877" ht="15.75" customHeight="1">
-      <c r="A877" s="5"/>
+      <c r="A877" s="11"/>
     </row>
     <row r="878" ht="15.75" customHeight="1">
-      <c r="A878" s="5"/>
+      <c r="A878" s="11"/>
     </row>
     <row r="879" ht="15.75" customHeight="1">
-      <c r="A879" s="5"/>
+      <c r="A879" s="11"/>
     </row>
     <row r="880" ht="15.75" customHeight="1">
-      <c r="A880" s="5"/>
+      <c r="A880" s="11"/>
     </row>
     <row r="881" ht="15.75" customHeight="1">
-      <c r="A881" s="5"/>
+      <c r="A881" s="11"/>
     </row>
     <row r="882" ht="15.75" customHeight="1">
-      <c r="A882" s="5"/>
+      <c r="A882" s="11"/>
     </row>
     <row r="883" ht="15.75" customHeight="1">
-      <c r="A883" s="5"/>
+      <c r="A883" s="11"/>
     </row>
     <row r="884" ht="15.75" customHeight="1">
-      <c r="A884" s="5"/>
+      <c r="A884" s="11"/>
     </row>
     <row r="885" ht="15.75" customHeight="1">
-      <c r="A885" s="5"/>
+      <c r="A885" s="11"/>
     </row>
     <row r="886" ht="15.75" customHeight="1">
-      <c r="A886" s="5"/>
+      <c r="A886" s="11"/>
     </row>
     <row r="887" ht="15.75" customHeight="1">
-      <c r="A887" s="5"/>
+      <c r="A887" s="11"/>
     </row>
     <row r="888" ht="15.75" customHeight="1">
-      <c r="A888" s="5"/>
+      <c r="A888" s="11"/>
     </row>
     <row r="889" ht="15.75" customHeight="1">
-      <c r="A889" s="5"/>
+      <c r="A889" s="11"/>
     </row>
     <row r="890" ht="15.75" customHeight="1">
-      <c r="A890" s="5"/>
+      <c r="A890" s="11"/>
     </row>
     <row r="891" ht="15.75" customHeight="1">
-      <c r="A891" s="5"/>
+      <c r="A891" s="11"/>
     </row>
     <row r="892" ht="15.75" customHeight="1">
-      <c r="A892" s="5"/>
+      <c r="A892" s="11"/>
     </row>
     <row r="893" ht="15.75" customHeight="1">
-      <c r="A893" s="5"/>
+      <c r="A893" s="11"/>
     </row>
     <row r="894" ht="15.75" customHeight="1">
-      <c r="A894" s="5"/>
+      <c r="A894" s="11"/>
     </row>
     <row r="895" ht="15.75" customHeight="1">
-      <c r="A895" s="5"/>
+      <c r="A895" s="11"/>
     </row>
     <row r="896" ht="15.75" customHeight="1">
-      <c r="A896" s="5"/>
+      <c r="A896" s="11"/>
     </row>
     <row r="897" ht="15.75" customHeight="1">
-      <c r="A897" s="5"/>
+      <c r="A897" s="11"/>
     </row>
     <row r="898" ht="15.75" customHeight="1">
-      <c r="A898" s="5"/>
+      <c r="A898" s="11"/>
     </row>
     <row r="899" ht="15.75" customHeight="1">
-      <c r="A899" s="5"/>
+      <c r="A899" s="11"/>
     </row>
     <row r="900" ht="15.75" customHeight="1">
-      <c r="A900" s="5"/>
+      <c r="A900" s="11"/>
     </row>
     <row r="901" ht="15.75" customHeight="1">
-      <c r="A901" s="5"/>
+      <c r="A901" s="11"/>
     </row>
     <row r="902" ht="15.75" customHeight="1">
-      <c r="A902" s="5"/>
+      <c r="A902" s="11"/>
     </row>
     <row r="903" ht="15.75" customHeight="1">
-      <c r="A903" s="5"/>
+      <c r="A903" s="11"/>
     </row>
     <row r="904" ht="15.75" customHeight="1">
-      <c r="A904" s="5"/>
+      <c r="A904" s="11"/>
     </row>
     <row r="905" ht="15.75" customHeight="1">
-      <c r="A905" s="5"/>
+      <c r="A905" s="11"/>
     </row>
     <row r="906" ht="15.75" customHeight="1">
-      <c r="A906" s="5"/>
+      <c r="A906" s="11"/>
     </row>
     <row r="907" ht="15.75" customHeight="1">
-      <c r="A907" s="5"/>
+      <c r="A907" s="11"/>
     </row>
     <row r="908" ht="15.75" customHeight="1">
-      <c r="A908" s="5"/>
+      <c r="A908" s="11"/>
     </row>
     <row r="909" ht="15.75" customHeight="1">
-      <c r="A909" s="5"/>
+      <c r="A909" s="11"/>
     </row>
     <row r="910" ht="15.75" customHeight="1">
-      <c r="A910" s="5"/>
+      <c r="A910" s="11"/>
     </row>
     <row r="911" ht="15.75" customHeight="1">
-      <c r="A911" s="5"/>
+      <c r="A911" s="11"/>
     </row>
     <row r="912" ht="15.75" customHeight="1">
-      <c r="A912" s="5"/>
+      <c r="A912" s="11"/>
     </row>
     <row r="913" ht="15.75" customHeight="1">
-      <c r="A913" s="5"/>
+      <c r="A913" s="11"/>
     </row>
     <row r="914" ht="15.75" customHeight="1">
-      <c r="A914" s="5"/>
+      <c r="A914" s="11"/>
     </row>
     <row r="915" ht="15.75" customHeight="1">
-      <c r="A915" s="5"/>
+      <c r="A915" s="11"/>
     </row>
     <row r="916" ht="15.75" customHeight="1">
-      <c r="A916" s="5"/>
+      <c r="A916" s="11"/>
     </row>
     <row r="917" ht="15.75" customHeight="1">
-      <c r="A917" s="5"/>
+      <c r="A917" s="11"/>
     </row>
     <row r="918" ht="15.75" customHeight="1">
-      <c r="A918" s="5"/>
+      <c r="A918" s="11"/>
     </row>
     <row r="919" ht="15.75" customHeight="1">
-      <c r="A919" s="5"/>
+      <c r="A919" s="11"/>
     </row>
     <row r="920" ht="15.75" customHeight="1">
-      <c r="A920" s="5"/>
+      <c r="A920" s="11"/>
     </row>
     <row r="921" ht="15.75" customHeight="1">
-      <c r="A921" s="5"/>
+      <c r="A921" s="11"/>
     </row>
     <row r="922" ht="15.75" customHeight="1">
-      <c r="A922" s="5"/>
+      <c r="A922" s="11"/>
     </row>
     <row r="923" ht="15.75" customHeight="1">
-      <c r="A923" s="5"/>
+      <c r="A923" s="11"/>
     </row>
     <row r="924" ht="15.75" customHeight="1">
-      <c r="A924" s="5"/>
+      <c r="A924" s="11"/>
     </row>
     <row r="925" ht="15.75" customHeight="1">
-      <c r="A925" s="5"/>
+      <c r="A925" s="11"/>
     </row>
     <row r="926" ht="15.75" customHeight="1">
-      <c r="A926" s="5"/>
+      <c r="A926" s="11"/>
     </row>
     <row r="927" ht="15.75" customHeight="1">
-      <c r="A927" s="5"/>
+      <c r="A927" s="11"/>
     </row>
     <row r="928" ht="15.75" customHeight="1">
-      <c r="A928" s="5"/>
+      <c r="A928" s="11"/>
     </row>
     <row r="929" ht="15.75" customHeight="1">
-      <c r="A929" s="5"/>
+      <c r="A929" s="11"/>
     </row>
     <row r="930" ht="15.75" customHeight="1">
-      <c r="A930" s="5"/>
+      <c r="A930" s="11"/>
     </row>
     <row r="931" ht="15.75" customHeight="1">
-      <c r="A931" s="5"/>
+      <c r="A931" s="11"/>
     </row>
     <row r="932" ht="15.75" customHeight="1">
-      <c r="A932" s="5"/>
+      <c r="A932" s="11"/>
     </row>
     <row r="933" ht="15.75" customHeight="1">
-      <c r="A933" s="5"/>
+      <c r="A933" s="11"/>
     </row>
     <row r="934" ht="15.75" customHeight="1">
-      <c r="A934" s="5"/>
+      <c r="A934" s="11"/>
     </row>
     <row r="935" ht="15.75" customHeight="1">
-      <c r="A935" s="5"/>
+      <c r="A935" s="11"/>
     </row>
     <row r="936" ht="15.75" customHeight="1">
-      <c r="A936" s="5"/>
+      <c r="A936" s="11"/>
     </row>
     <row r="937" ht="15.75" customHeight="1">
-      <c r="A937" s="5"/>
+      <c r="A937" s="11"/>
     </row>
     <row r="938" ht="15.75" customHeight="1">
-      <c r="A938" s="5"/>
+      <c r="A938" s="11"/>
     </row>
     <row r="939" ht="15.75" customHeight="1">
-      <c r="A939" s="5"/>
+      <c r="A939" s="11"/>
     </row>
     <row r="940" ht="15.75" customHeight="1">
-      <c r="A940" s="5"/>
+      <c r="A940" s="11"/>
     </row>
     <row r="941" ht="15.75" customHeight="1">
-      <c r="A941" s="5"/>
+      <c r="A941" s="11"/>
     </row>
     <row r="942" ht="15.75" customHeight="1">
-      <c r="A942" s="5"/>
+      <c r="A942" s="11"/>
     </row>
     <row r="943" ht="15.75" customHeight="1">
-      <c r="A943" s="5"/>
+      <c r="A943" s="11"/>
     </row>
     <row r="944" ht="15.75" customHeight="1">
-      <c r="A944" s="5"/>
+      <c r="A944" s="11"/>
     </row>
     <row r="945" ht="15.75" customHeight="1">
-      <c r="A945" s="5"/>
+      <c r="A945" s="11"/>
     </row>
     <row r="946" ht="15.75" customHeight="1">
-      <c r="A946" s="5"/>
+      <c r="A946" s="11"/>
     </row>
     <row r="947" ht="15.75" customHeight="1">
-      <c r="A947" s="5"/>
+      <c r="A947" s="11"/>
     </row>
     <row r="948" ht="15.75" customHeight="1">
-      <c r="A948" s="5"/>
+      <c r="A948" s="11"/>
     </row>
     <row r="949" ht="15.75" customHeight="1">
-      <c r="A949" s="5"/>
+      <c r="A949" s="11"/>
     </row>
     <row r="950" ht="15.75" customHeight="1">
-      <c r="A950" s="5"/>
+      <c r="A950" s="11"/>
     </row>
     <row r="951" ht="15.75" customHeight="1">
-      <c r="A951" s="5"/>
+      <c r="A951" s="11"/>
     </row>
     <row r="952" ht="15.75" customHeight="1">
-      <c r="A952" s="5"/>
+      <c r="A952" s="11"/>
     </row>
     <row r="953" ht="15.75" customHeight="1">
-      <c r="A953" s="5"/>
+      <c r="A953" s="11"/>
     </row>
     <row r="954" ht="15.75" customHeight="1">
-      <c r="A954" s="5"/>
+      <c r="A954" s="11"/>
     </row>
     <row r="955" ht="15.75" customHeight="1">
-      <c r="A955" s="5"/>
+      <c r="A955" s="11"/>
     </row>
     <row r="956" ht="15.75" customHeight="1">
-      <c r="A956" s="5"/>
+      <c r="A956" s="11"/>
     </row>
     <row r="957" ht="15.75" customHeight="1">
-      <c r="A957" s="5"/>
+      <c r="A957" s="11"/>
     </row>
     <row r="958" ht="15.75" customHeight="1">
-      <c r="A958" s="5"/>
+      <c r="A958" s="11"/>
     </row>
     <row r="959" ht="15.75" customHeight="1">
-      <c r="A959" s="5"/>
+      <c r="A959" s="11"/>
     </row>
     <row r="960" ht="15.75" customHeight="1">
-      <c r="A960" s="5"/>
+      <c r="A960" s="11"/>
     </row>
     <row r="961" ht="15.75" customHeight="1">
-      <c r="A961" s="5"/>
+      <c r="A961" s="11"/>
     </row>
     <row r="962" ht="15.75" customHeight="1">
-      <c r="A962" s="5"/>
+      <c r="A962" s="11"/>
     </row>
     <row r="963" ht="15.75" customHeight="1">
-      <c r="A963" s="5"/>
+      <c r="A963" s="11"/>
     </row>
     <row r="964" ht="15.75" customHeight="1">
-      <c r="A964" s="5"/>
+      <c r="A964" s="11"/>
     </row>
     <row r="965" ht="15.75" customHeight="1">
-      <c r="A965" s="5"/>
+      <c r="A965" s="11"/>
     </row>
     <row r="966" ht="15.75" customHeight="1">
-      <c r="A966" s="5"/>
+      <c r="A966" s="11"/>
     </row>
     <row r="967" ht="15.75" customHeight="1">
-      <c r="A967" s="5"/>
+      <c r="A967" s="11"/>
     </row>
     <row r="968" ht="15.75" customHeight="1">
-      <c r="A968" s="5"/>
+      <c r="A968" s="11"/>
     </row>
     <row r="969" ht="15.75" customHeight="1">
-      <c r="A969" s="5"/>
+      <c r="A969" s="11"/>
     </row>
     <row r="970" ht="15.75" customHeight="1">
-      <c r="A970" s="5"/>
+      <c r="A970" s="11"/>
     </row>
     <row r="971" ht="15.75" customHeight="1">
-      <c r="A971" s="5"/>
+      <c r="A971" s="11"/>
     </row>
     <row r="972" ht="15.75" customHeight="1">
-      <c r="A972" s="5"/>
+      <c r="A972" s="11"/>
     </row>
     <row r="973" ht="15.75" customHeight="1">
-      <c r="A973" s="5"/>
+      <c r="A973" s="11"/>
     </row>
     <row r="974" ht="15.75" customHeight="1">
-      <c r="A974" s="5"/>
+      <c r="A974" s="11"/>
     </row>
     <row r="975" ht="15.75" customHeight="1">
-      <c r="A975" s="5"/>
+      <c r="A975" s="11"/>
     </row>
     <row r="976" ht="15.75" customHeight="1">
-      <c r="A976" s="5"/>
+      <c r="A976" s="11"/>
     </row>
     <row r="977" ht="15.75" customHeight="1">
-      <c r="A977" s="5"/>
+      <c r="A977" s="11"/>
     </row>
     <row r="978" ht="15.75" customHeight="1">
-      <c r="A978" s="5"/>
+      <c r="A978" s="11"/>
     </row>
     <row r="979" ht="15.75" customHeight="1">
-      <c r="A979" s="5"/>
+      <c r="A979" s="11"/>
     </row>
     <row r="980" ht="15.75" customHeight="1">
-      <c r="A980" s="5"/>
+      <c r="A980" s="11"/>
     </row>
     <row r="981" ht="15.75" customHeight="1">
-      <c r="A981" s="5"/>
+      <c r="A981" s="11"/>
     </row>
     <row r="982" ht="15.75" customHeight="1">
-      <c r="A982" s="5"/>
+      <c r="A982" s="11"/>
     </row>
     <row r="983" ht="15.75" customHeight="1">
-      <c r="A983" s="5"/>
+      <c r="A983" s="11"/>
     </row>
     <row r="984" ht="15.75" customHeight="1">
-      <c r="A984" s="5"/>
+      <c r="A984" s="11"/>
     </row>
     <row r="985" ht="15.75" customHeight="1">
-      <c r="A985" s="5"/>
+      <c r="A985" s="11"/>
     </row>
     <row r="986" ht="15.75" customHeight="1">
-      <c r="A986" s="5"/>
+      <c r="A986" s="11"/>
     </row>
     <row r="987" ht="15.75" customHeight="1">
-      <c r="A987" s="5"/>
+      <c r="A987" s="11"/>
     </row>
     <row r="988" ht="15.75" customHeight="1">
-      <c r="A988" s="5"/>
+      <c r="A988" s="11"/>
     </row>
     <row r="989" ht="15.75" customHeight="1">
-      <c r="A989" s="5"/>
+      <c r="A989" s="11"/>
     </row>
     <row r="990" ht="15.75" customHeight="1">
-      <c r="A990" s="5"/>
+      <c r="A990" s="11"/>
     </row>
     <row r="991" ht="15.75" customHeight="1">
-      <c r="A991" s="5"/>
+      <c r="A991" s="11"/>
     </row>
     <row r="992" ht="15.75" customHeight="1">
-      <c r="A992" s="5"/>
+      <c r="A992" s="11"/>
     </row>
     <row r="993" ht="15.75" customHeight="1">
-      <c r="A993" s="5"/>
+      <c r="A993" s="11"/>
     </row>
     <row r="994" ht="15.75" customHeight="1">
-      <c r="A994" s="5"/>
+      <c r="A994" s="11"/>
     </row>
     <row r="995" ht="15.75" customHeight="1">
-      <c r="A995" s="5"/>
+      <c r="A995" s="11"/>
     </row>
     <row r="996" ht="15.75" customHeight="1">
-      <c r="A996" s="5"/>
+      <c r="A996" s="11"/>
     </row>
     <row r="997" ht="15.75" customHeight="1">
-      <c r="A997" s="5"/>
+      <c r="A997" s="11"/>
     </row>
     <row r="998" ht="15.75" customHeight="1">
-      <c r="A998" s="5"/>
+      <c r="A998" s="11"/>
     </row>
     <row r="999" ht="15.75" customHeight="1">
-      <c r="A999" s="5"/>
+      <c r="A999" s="11"/>
+    </row>
+    <row r="1000" ht="15.75" customHeight="1">
+      <c r="A1000" s="11"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -4724,53 +4892,58 @@
   <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="s">
-        <v>179</v>
+      <c r="A1" s="12" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="s">
-        <v>180</v>
+      <c r="A2" s="12" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="s">
-        <v>181</v>
+      <c r="A3" s="12" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="s">
-        <v>182</v>
+      <c r="A4" s="12" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="6" t="s">
-        <v>183</v>
+      <c r="A5" s="12" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="s">
-        <v>184</v>
+      <c r="A6" s="12" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="s">
-        <v>185</v>
+      <c r="A7" s="12" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="s">
-        <v>186</v>
+      <c r="A8" s="12" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="s">
-        <v>187</v>
+      <c r="A9" s="12" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="s">
-        <v>188</v>
+      <c r="A10" s="12" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="12" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
